--- a/test_case/integration-test-case_v4.xlsx
+++ b/test_case/integration-test-case_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE131C9-86E7-4A7A-8335-14976B606DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30774A7B-DD43-4C20-A880-91C4D9CF9815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="386">
   <si>
     <t>ver</t>
   </si>
@@ -992,9 +992,24 @@
 3.【ログイン】ボタンをクリックする</t>
   </si>
   <si>
+    <t>ログイン失敗し、ログインボタンの下にテキスト「パスワードが一致しません」が表示される</t>
+  </si>
+  <si>
     <t>表示されるがデバッグ用の関数も表示された</t>
   </si>
   <si>
+    <t>ログイン時、DBの接続時にエラーとなる場合、エラーメッセージを表示する</t>
+  </si>
+  <si>
+    <t>1.メールアドレスの入力フォームへ「kanri@mail.com」を入力する
+2.パスワードの入力フォームへ「abc123」を入力する
+3.XAMMPのMySQLの「STOP」ボタンをクリックする
+4.【ログイン】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>ログイン失敗し、ログインボタンの下にテキスト「エラーが発生したためログイン情報を取得できません。」が表示される</t>
+  </si>
+  <si>
     <t>ログイン情報保持</t>
   </si>
   <si>
@@ -1007,18 +1022,170 @@
     <t>1.ナビゲーションバーを目視する</t>
   </si>
   <si>
-    <t>アカウント登録画面</t>
+    <t>ナビゲーションバーの「ログイン」メニューの表示がなくなり「アカウント登録」「アカウント一覧」「ログアウト」のメニューが表示される</t>
   </si>
   <si>
     <t>1.ナビゲーションバーの「アカウント登録」をクリックする
 2.ナビゲーションバーを目視する</t>
   </si>
   <si>
-    <t>アカウント一覧画面</t>
+    <t>登録確認画面</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「アカウント登録」をクリックする
+2.「名前（姓）」の入力フォームへ「山田」を入力する
+3.「名前（名）」の入力フォームへ「花子」を入力する
+4.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+5.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+6.「メールアドレス」の入力フォームへ「test1@mail.com」を入力する
+7.「パスワード」の入力フォームへ「abc123」を入力する
+8.「性別」のリストから「女性」を選択する
+9.「郵便番号」の入力フォームへ「0123456」を入力する
+10.「住所（都道府県）」のリストから「東京都」を選択する
+11.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+12.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+13.「アカウント権限」のリストから「管理者」を選択する
+14.確認ボタンをクリックする
+15.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+  </si>
+  <si>
+    <t>「管理者」権限のアカウントでログインすると、ナビゲーションバーの管理者用のメニューが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.登録するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>重複チェック</t>
+  </si>
+  <si>
+    <t>重複するメールアドレスが存在する場合、エラーメッセージが表示される</t>
   </si>
   <si>
     <t>1.ナビゲーションバーの「アカウント一覧」をクリックする
 2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.一覧画面の全件表示ボタンをクリックする
+2.一番上のレコードの更新ボタンをクリックする
+3.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.更新画面の確認するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.更新確認画面の更新するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.一覧画面の全件表示ボタンをクリックする
+2.一番上のレコードの削除ボタンをクリックする
+3.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.削除画面の確認するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>1.削除確認画面の削除するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>ログアウト画面</t>
+  </si>
+  <si>
+    <t>管理者権限のアカウントからログアウトできる</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「ログアウト」をクリックする</t>
+  </si>
+  <si>
+    <t>「logout.php」へ遷移する</t>
+  </si>
+  <si>
+    <t>「ログアウトしました」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>「一般」権限のアカウントでログインすると、ナビゲーションバーの管理者用のメニューが表示される</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「ログイン」をクリックする
+2.メールアドレスの入力フォームへ「kanri@mail.com」を入力する
+3.パスワードの入力フォームへ「abc123」を入力する
+4.【ログイン】ボタンをクリックする
+5.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーに「ログアウト」のメニューが表示される</t>
+  </si>
+  <si>
+    <t>「一般」権限のアカウントでログインすると、管理者権限が必要な画面ではエラー表示がされる</t>
+  </si>
+  <si>
+    <t>1.「list.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>「fail.php」へ遷移し、「権限がありません」のテキストが表示がされる</t>
+  </si>
+  <si>
+    <t>1.「regist.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「regist_confirm.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「regist_complete.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「update.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「update_confirm.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>「データの呼び出しに失敗しました」が表示される</t>
+  </si>
+  <si>
+    <t>1.「update_complete.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「delete.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「delete_confirm.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>1.「delete_complete.php」へ直接アクセスする
+2.画面を目視する</t>
+  </si>
+  <si>
+    <t>一般権限のアカウントからログアウトできる</t>
+  </si>
+  <si>
+    <t>ログアウトするとログインメニューが表示される</t>
+  </si>
+  <si>
+    <t>ナビゲーションバーに「ログアウト」メニューがなくなり「ログイン」メニューが表示される</t>
+  </si>
+  <si>
+    <t>メニューが更新されない</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -2035,11 +2202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5766,7 +5933,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" ref="B80:B130" si="6">ROW()-1</f>
+        <f t="shared" ref="B86:B135" si="6">ROW()-1</f>
         <v>85</v>
       </c>
       <c r="C86" s="9"/>
@@ -5785,11 +5952,17 @@
       <c r="H86" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I86" s="34"/>
+      <c r="I86" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J86" s="36"/>
       <c r="K86" s="35"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="43"/>
+      <c r="L86" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M86" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N86" s="45"/>
       <c r="O86" s="35"/>
     </row>
@@ -5815,11 +5988,17 @@
       <c r="H87" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="I87" s="34"/>
+      <c r="I87" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J87" s="36"/>
       <c r="K87" s="35"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="43"/>
+      <c r="L87" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M87" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N87" s="45"/>
       <c r="O87" s="35"/>
     </row>
@@ -5843,47 +6022,60 @@
         <v>247</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="I88" s="34"/>
+        <v>248</v>
+      </c>
+      <c r="I88" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="J88" s="36"/>
       <c r="K88" s="35"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="43"/>
+      <c r="L88" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M88" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N88" s="45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="35"/>
     </row>
-    <row r="89" spans="1:15" ht="92.25">
+    <row r="89" spans="1:15" ht="73.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="C89" s="9">
-        <f>$B$86</f>
-        <v>85</v>
-      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="12" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E89" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="G89" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="H89" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="34"/>
+      <c r="I89" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J89" s="36"/>
       <c r="K89" s="35"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="45"/>
+      <c r="L89" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M89" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="45" t="s">
+        <v>249</v>
+      </c>
       <c r="O89" s="35"/>
     </row>
     <row r="90" spans="1:15" ht="92.25">
@@ -5897,23 +6089,31 @@
         <v>85</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H90" s="40"/>
-      <c r="I90" s="34"/>
+        <v>255</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I90" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J90" s="36"/>
       <c r="K90" s="35"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="43"/>
+      <c r="L90" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M90" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N90" s="45"/>
       <c r="O90" s="35"/>
     </row>
@@ -5928,544 +6128,1044 @@
         <v>85</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E91" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="G91" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="34"/>
+        <v>258</v>
+      </c>
+      <c r="H91" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J91" s="36"/>
       <c r="K91" s="35"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="43"/>
+      <c r="L91" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M91" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N91" s="45"/>
       <c r="O91" s="35"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="275.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="34"/>
+      <c r="D92" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I92" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J92" s="36"/>
       <c r="K92" s="35"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="43"/>
+      <c r="L92" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M92" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N92" s="45"/>
       <c r="O92" s="35"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="73.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="34"/>
+      <c r="C93" s="9">
+        <f>$B$92</f>
+        <v>91</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I93" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J93" s="36"/>
       <c r="K93" s="35"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="43"/>
+      <c r="L93" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M93" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N93" s="45"/>
       <c r="O93" s="35"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="275.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="34"/>
+      <c r="C94" s="9">
+        <f>$B$93</f>
+        <v>92</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J94" s="36"/>
       <c r="K94" s="35"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="43"/>
+      <c r="L94" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M94" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N94" s="45"/>
       <c r="O94" s="35"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="73.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="34"/>
+      <c r="C95" s="9">
+        <f>$B$86</f>
+        <v>85</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I95" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J95" s="36"/>
       <c r="K95" s="35"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="43"/>
+      <c r="L95" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M95" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N95" s="45"/>
       <c r="O95" s="35"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="73.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="34"/>
+      <c r="C96" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I96" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J96" s="36"/>
       <c r="K96" s="35"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="43"/>
+      <c r="L96" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M96" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N96" s="45"/>
       <c r="O96" s="35"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="73.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="34"/>
+      <c r="C97" s="9">
+        <f>$B$96</f>
+        <v>95</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I97" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J97" s="36"/>
       <c r="K97" s="35"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="43"/>
+      <c r="L97" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M97" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N97" s="45"/>
       <c r="O97" s="35"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="73.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="34"/>
+      <c r="C98" s="9">
+        <f>$B$97</f>
+        <v>96</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H98" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I98" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J98" s="36"/>
       <c r="K98" s="35"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="43"/>
+      <c r="L98" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M98" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N98" s="45"/>
       <c r="O98" s="35"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" ht="73.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="34"/>
+      <c r="C99" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J99" s="36"/>
       <c r="K99" s="35"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="43"/>
+      <c r="L99" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M99" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N99" s="45"/>
       <c r="O99" s="35"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="73.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="34"/>
+      <c r="C100" s="9">
+        <f>$B$99</f>
+        <v>98</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I100" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J100" s="36"/>
       <c r="K100" s="35"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="43"/>
+      <c r="L100" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M100" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N100" s="45"/>
       <c r="O100" s="35"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" ht="73.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="34"/>
+      <c r="C101" s="9">
+        <f>$B$100</f>
+        <v>99</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I101" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J101" s="36"/>
       <c r="K101" s="35"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="43"/>
+      <c r="L101" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M101" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N101" s="45"/>
       <c r="O101" s="35"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" ht="36.75">
       <c r="A102" s="3"/>
       <c r="B102" s="3">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="34"/>
+      <c r="C102" s="9">
+        <f>$B$86</f>
+        <v>85</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="I102" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J102" s="36"/>
       <c r="K102" s="35"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="43"/>
+      <c r="L102" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M102" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N102" s="45"/>
       <c r="O102" s="35"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" ht="36.75">
       <c r="A103" s="3"/>
       <c r="B103" s="3">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="34"/>
+      <c r="C103" s="9">
+        <f>$B$86</f>
+        <v>85</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I103" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J103" s="36"/>
       <c r="K103" s="35"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="43"/>
+      <c r="L103" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M103" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N103" s="45"/>
       <c r="O103" s="35"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" ht="92.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="C104" s="9"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="34"/>
+      <c r="D104" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J104" s="36"/>
       <c r="K104" s="35"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="43"/>
+      <c r="L104" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M104" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N104" s="45"/>
       <c r="O104" s="35"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" ht="73.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="34"/>
+      <c r="C105" s="9">
+        <f>$B$104</f>
+        <v>103</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I105" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J105" s="36"/>
       <c r="K105" s="35"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="43"/>
+      <c r="L105" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M105" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N105" s="45"/>
       <c r="O105" s="35"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" ht="73.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="34"/>
+      <c r="C106" s="9">
+        <f t="shared" ref="C106:C115" si="7">$B$104</f>
+        <v>103</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I106" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J106" s="36"/>
       <c r="K106" s="35"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="43"/>
+      <c r="L106" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M106" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N106" s="45"/>
       <c r="O106" s="35"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" ht="73.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="34"/>
+      <c r="C107" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H107" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I107" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J107" s="36"/>
       <c r="K107" s="35"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="43"/>
+      <c r="L107" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M107" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N107" s="45"/>
       <c r="O107" s="35"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" ht="73.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3">
         <f t="shared" si="6"/>
         <v>107</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="34"/>
+      <c r="C108" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I108" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J108" s="36"/>
       <c r="K108" s="35"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="43"/>
+      <c r="L108" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M108" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N108" s="45"/>
       <c r="O108" s="35"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" ht="73.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="34"/>
+      <c r="C109" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H109" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I109" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J109" s="36"/>
       <c r="K109" s="35"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="43"/>
+      <c r="L109" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M109" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N109" s="45"/>
       <c r="O109" s="35"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" ht="73.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3">
         <f t="shared" si="6"/>
         <v>109</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="34"/>
+      <c r="C110" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I110" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="J110" s="36"/>
       <c r="K110" s="35"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="45"/>
+      <c r="L110" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M110" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" s="45" t="s">
+        <v>290</v>
+      </c>
       <c r="O110" s="35"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" ht="73.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="34"/>
+      <c r="C111" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H111" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I111" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J111" s="36"/>
       <c r="K111" s="35"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="43"/>
+      <c r="L111" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M111" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N111" s="45"/>
       <c r="O111" s="35"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" ht="73.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3">
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="34"/>
+      <c r="C112" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H112" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I112" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J112" s="36"/>
       <c r="K112" s="35"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="43"/>
+      <c r="L112" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M112" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N112" s="45"/>
       <c r="O112" s="35"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" ht="73.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3">
         <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="34"/>
+      <c r="C113" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I113" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J113" s="36"/>
       <c r="K113" s="35"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="43"/>
+      <c r="L113" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M113" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N113" s="45"/>
       <c r="O113" s="35"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="73.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="34"/>
+      <c r="C114" s="9">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H114" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I114" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J114" s="36"/>
       <c r="K114" s="35"/>
-      <c r="L114" s="44"/>
-      <c r="M114" s="43"/>
+      <c r="L114" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M114" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N114" s="45"/>
       <c r="O114" s="35"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="36.75">
       <c r="A115" s="3"/>
       <c r="B115" s="3">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="40"/>
-      <c r="I115" s="34"/>
+      <c r="C115" s="9">
+        <f>$B$104</f>
+        <v>103</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H115" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="I115" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J115" s="36"/>
       <c r="K115" s="35"/>
-      <c r="L115" s="44"/>
-      <c r="M115" s="43"/>
+      <c r="L115" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M115" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N115" s="45"/>
       <c r="O115" s="35"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" ht="36.75">
       <c r="A116" s="3"/>
       <c r="B116" s="3">
         <f t="shared" si="6"/>
         <v>115</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="34"/>
+      <c r="C116" s="9">
+        <f>$B$104</f>
+        <v>103</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H116" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I116" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J116" s="36"/>
       <c r="K116" s="35"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="43"/>
+      <c r="L116" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M116" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N116" s="45"/>
       <c r="O116" s="35"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="55.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="34"/>
+      <c r="C117" s="9">
+        <f>$B$104</f>
+        <v>103</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H117" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="I117" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="J117" s="36"/>
       <c r="K117" s="35"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="45"/>
+      <c r="L117" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M117" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="45" t="s">
+        <v>298</v>
+      </c>
       <c r="O117" s="35"/>
     </row>
     <row r="118" spans="1:15">
@@ -6727,6 +7427,106 @@
       <c r="M130" s="43"/>
       <c r="N130" s="45"/>
       <c r="O130" s="35"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="44"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="45"/>
+      <c r="O131" s="35"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="44"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="45"/>
+      <c r="O132" s="35"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="44"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="35"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="44"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="45"/>
+      <c r="O134" s="35"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="44"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="45"/>
+      <c r="O135" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
@@ -6817,63 +7617,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -6881,31 +7681,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -6913,13 +7713,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -6927,13 +7727,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -6941,13 +7741,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -6955,13 +7755,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -6969,13 +7769,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -6983,13 +7783,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -6997,13 +7797,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -7011,13 +7811,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -7025,13 +7825,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -7039,13 +7839,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -7053,13 +7853,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -7067,13 +7867,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -7081,13 +7881,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -7095,7 +7895,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -7103,7 +7903,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -7111,7 +7911,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -7119,7 +7919,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -7127,7 +7927,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -7135,7 +7935,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -7143,7 +7943,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -7151,7 +7951,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -7159,7 +7959,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -7167,7 +7967,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -7175,7 +7975,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -7183,7 +7983,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -7191,7 +7991,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -7199,7 +7999,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -7207,7 +8007,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -7215,7 +8015,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -7223,7 +8023,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -7231,7 +8031,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -7239,7 +8039,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -7247,7 +8047,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -7255,7 +8055,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -7263,7 +8063,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -7271,7 +8071,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -7279,7 +8079,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -7287,7 +8087,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -7295,7 +8095,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -7303,7 +8103,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -7311,7 +8111,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -7319,7 +8119,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -7327,7 +8127,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -7335,7 +8135,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -7343,7 +8143,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>

--- a/test_case/integration-test-case_v4.xlsx
+++ b/test_case/integration-test-case_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30774A7B-DD43-4C20-A880-91C4D9CF9815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C537E8-BAE6-49AF-AD59-DEE872BD0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="423">
   <si>
     <t>ver</t>
   </si>
@@ -1037,6 +1037,41 @@
 3.「名前（名）」の入力フォームへ「花子」を入力する
 4.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
 5.「カナ（名）」の入力フォームへ「ハナコ」を入力する
+6.「メールアドレス」の入力フォームへ「test(n)@mail.com」を入力する
+7.「パスワード」の入力フォームへ「abc123」を入力する
+8.「性別」のリストから「女性」を選択する
+9.「郵便番号」の入力フォームへ「0123456」を入力する
+10.「住所（都道府県）」のリストから「東京都」を選択する
+11.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+12.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+13.「アカウント権限」のリストから「管理者」を選択する
+14.確認ボタンをクリックする
+15.ナビゲーションバーを目視する
+(n)は自然数、試行回数の度に1ずつ増やす</t>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+  </si>
+  <si>
+    <t>「管理者」権限のアカウントでログインすると、ナビゲーションバーの管理者用のメニューが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.登録するボタンをクリックする
+2.ナビゲーションバーを目視する</t>
+  </si>
+  <si>
+    <t>重複チェック</t>
+  </si>
+  <si>
+    <t>重複するメールアドレスが存在する場合、エラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「アカウント登録」をクリックする
+2.「名前（姓）」の入力フォームへ「山田」を入力する
+3.「名前（名）」の入力フォームへ「花子」を入力する
+4.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+5.「カナ（名）」の入力フォームへ「ハナコ」を入力する
 6.「メールアドレス」の入力フォームへ「test1@mail.com」を入力する
 7.「パスワード」の入力フォームへ「abc123」を入力する
 8.「性別」のリストから「女性」を選択する
@@ -1049,23 +1084,6 @@
 15.ナビゲーションバーを目視する</t>
   </si>
   <si>
-    <t>登録完了画面</t>
-  </si>
-  <si>
-    <t>「管理者」権限のアカウントでログインすると、ナビゲーションバーの管理者用のメニューが表示される</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.登録するボタンをクリックする
-2.ナビゲーションバーを目視する</t>
-  </si>
-  <si>
-    <t>重複チェック</t>
-  </si>
-  <si>
-    <t>重複するメールアドレスが存在する場合、エラーメッセージが表示される</t>
-  </si>
-  <si>
     <t>1.ナビゲーションバーの「アカウント一覧」をクリックする
 2.ナビゲーションバーを目視する</t>
   </si>
@@ -1160,6 +1178,9 @@
     <t>「データの呼び出しに失敗しました」が表示される</t>
   </si>
   <si>
+    <t>ログインせず直アクセスした際の条件付与</t>
+  </si>
+  <si>
     <t>1.「update_complete.php」へ直接アクセスする
 2.画面を目視する</t>
   </si>
@@ -1186,6 +1207,122 @@
   </si>
   <si>
     <t>メニューが更新されない</t>
+  </si>
+  <si>
+    <t>更新の処理を入れる？</t>
+  </si>
+  <si>
+    <t>検索機能</t>
+  </si>
+  <si>
+    <t>全件表示できる</t>
+  </si>
+  <si>
+    <t>1.入力フォームは空欄、ラジオボタン・アカウント権限は「未選択」の状態で、【検索】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>全てのアカウントが表示される</t>
+  </si>
+  <si>
+    <t>1.【全件表示】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>名前（姓）に入力した文字でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「山」を入力する</t>
+  </si>
+  <si>
+    <t>名前（姓）に「山」が含まれるアカウントが表示される</t>
+  </si>
+  <si>
+    <t>名前（名）に入力した文字でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.「名前（名）」の入力フォームへ「太」を入力する</t>
+  </si>
+  <si>
+    <t>名前（名）に「太」が含まれるアカウントが表示される</t>
+  </si>
+  <si>
+    <t>カナ（姓）に入力した文字でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.「カナ（姓）」の入力フォームへ「ヤ」を入力する</t>
+  </si>
+  <si>
+    <t>カナ（姓）に「ヤ」が含まれるアカウントが表示される</t>
+  </si>
+  <si>
+    <t>カナ（名）に入力した文字でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.「カナ（名）」の入力フォームへ「タ」を入力する</t>
+  </si>
+  <si>
+    <t>カナ（名）に「タ」が含まれるアカウントが表示される</t>
+  </si>
+  <si>
+    <t>メールアドレスに入力した文字でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「test」を入力する</t>
+  </si>
+  <si>
+    <t>メールアドレスに「test」が含まれるアカウントが表示される</t>
+  </si>
+  <si>
+    <t>選択した性別でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.性別のうち「男」を選択する</t>
+  </si>
+  <si>
+    <t>性別が「男」のアカウントが表示される</t>
+  </si>
+  <si>
+    <t>選択したアカウント権限でアカウントを検索できる</t>
+  </si>
+  <si>
+    <t>1.アカウント権限のうち「一般」を選択する</t>
+  </si>
+  <si>
+    <t>アカウント権限が「一般」のアカウントが表示される</t>
+  </si>
+  <si>
+    <t>複数の条件を指定してand検索が出来る</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「山」を入力する
+2.「名前（名）」の入力フォームへ「太」を入力する
+3.「カナ（姓）」の入力フォームへ「ヤ」を入力する
+4.「カナ（名）」の入力フォームへ「タ」を入力する
+5.「メールアドレス」の入力フォームへ「test」を入力する
+6.性別のうち「男」を選択する
+7.アカウント権限のうち「一般」を選択する
+8.【検索】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>「名前（姓）」が「山」を含む、かつ、
+「名前（名）」が「太」を含む、かつ、
+「カナ（姓）」が「ヤ」を含む、かつ、「カナ（名）」が「タ」を含む、かつ、「メールアドレス」が「test」を含む、かつ、性別が「男」かつ、アカウント権限が「一般」のアカウントが表示される</t>
+  </si>
+  <si>
+    <t>検索時DB接続失敗</t>
+  </si>
+  <si>
+    <t>検索時にDB接続失敗した場合、エラーが表示される</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「山」を入力する
+2.XAMMPのMySQLの「STOP」ボタンをクリックする
+3.【検索】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>エラー画面へ遷移し、「データの呼び出しに失敗しました」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>アクセス制限</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -2202,11 +2339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M114" sqref="M114"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2214,7 +2351,7 @@
     <col min="1" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="46" customWidth="1"/>
     <col min="6" max="6" width="27.75" style="10" customWidth="1"/>
     <col min="7" max="7" width="62.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.875" style="14" customWidth="1"/>
@@ -5933,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" ref="B86:B135" si="6">ROW()-1</f>
+        <f t="shared" ref="B86:B149" si="6">ROW()-1</f>
         <v>85</v>
       </c>
       <c r="C86" s="9"/>
@@ -5955,8 +6092,12 @@
       <c r="I86" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="36"/>
-      <c r="K86" s="35"/>
+      <c r="J86" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L86" s="42">
         <v>45117</v>
       </c>
@@ -5967,7 +6108,9 @@
       <c r="O86" s="35"/>
     </row>
     <row r="87" spans="1:15" ht="55.5">
-      <c r="A87" s="3"/>
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
       <c r="B87" s="3">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -5991,8 +6134,12 @@
       <c r="I87" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="36"/>
-      <c r="K87" s="35"/>
+      <c r="J87" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L87" s="42">
         <v>45117</v>
       </c>
@@ -6003,7 +6150,9 @@
       <c r="O87" s="35"/>
     </row>
     <row r="88" spans="1:15" ht="55.5">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3">
+        <v>4</v>
+      </c>
       <c r="B88" s="3">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -6041,7 +6190,9 @@
       <c r="O88" s="35"/>
     </row>
     <row r="89" spans="1:15" ht="73.5">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3">
+        <v>4</v>
+      </c>
       <c r="B89" s="3">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -6065,21 +6216,25 @@
       <c r="I89" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="36"/>
-      <c r="K89" s="35"/>
+      <c r="J89" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L89" s="42">
         <v>45117</v>
       </c>
       <c r="M89" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N89" s="45" t="s">
-        <v>249</v>
-      </c>
+      <c r="N89" s="45"/>
       <c r="O89" s="35"/>
     </row>
     <row r="90" spans="1:15" ht="92.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3">
+        <v>4</v>
+      </c>
       <c r="B90" s="3">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -6106,8 +6261,12 @@
       <c r="I90" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="36"/>
-      <c r="K90" s="35"/>
+      <c r="J90" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L90" s="42">
         <v>45117</v>
       </c>
@@ -6118,7 +6277,9 @@
       <c r="O90" s="35"/>
     </row>
     <row r="91" spans="1:15" ht="92.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3">
+        <v>4</v>
+      </c>
       <c r="B91" s="3">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -6145,8 +6306,12 @@
       <c r="I91" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="36"/>
-      <c r="K91" s="35"/>
+      <c r="J91" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L91" s="42">
         <v>45117</v>
       </c>
@@ -6156,8 +6321,10 @@
       <c r="N91" s="45"/>
       <c r="O91" s="35"/>
     </row>
-    <row r="92" spans="1:15" ht="275.25">
-      <c r="A92" s="3"/>
+    <row r="92" spans="1:15" ht="330">
+      <c r="A92" s="3">
+        <v>4</v>
+      </c>
       <c r="B92" s="3">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -6181,8 +6348,12 @@
       <c r="I92" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="36"/>
-      <c r="K92" s="35"/>
+      <c r="J92" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L92" s="42">
         <v>45117</v>
       </c>
@@ -6193,7 +6364,9 @@
       <c r="O92" s="35"/>
     </row>
     <row r="93" spans="1:15" ht="73.5">
-      <c r="A93" s="3"/>
+      <c r="A93" s="3">
+        <v>4</v>
+      </c>
       <c r="B93" s="3">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -6220,8 +6393,12 @@
       <c r="I93" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="36"/>
-      <c r="K93" s="35"/>
+      <c r="J93" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L93" s="42">
         <v>45117</v>
       </c>
@@ -6232,7 +6409,9 @@
       <c r="O93" s="35"/>
     </row>
     <row r="94" spans="1:15" ht="275.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="3">
+        <v>4</v>
+      </c>
       <c r="B94" s="3">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -6251,7 +6430,7 @@
         <v>265</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H94" s="40" t="s">
         <v>257</v>
@@ -6259,8 +6438,12 @@
       <c r="I94" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J94" s="36"/>
-      <c r="K94" s="35"/>
+      <c r="J94" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L94" s="42">
         <v>45117</v>
       </c>
@@ -6271,7 +6454,9 @@
       <c r="O94" s="35"/>
     </row>
     <row r="95" spans="1:15" ht="73.5">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3">
+        <v>4</v>
+      </c>
       <c r="B95" s="3">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -6290,7 +6475,7 @@
         <v>262</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H95" s="40" t="s">
         <v>257</v>
@@ -6298,8 +6483,12 @@
       <c r="I95" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="36"/>
-      <c r="K95" s="35"/>
+      <c r="J95" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L95" s="42">
         <v>45117</v>
       </c>
@@ -6310,7 +6499,9 @@
       <c r="O95" s="35"/>
     </row>
     <row r="96" spans="1:15" ht="73.5">
-      <c r="A96" s="3"/>
+      <c r="A96" s="3">
+        <v>4</v>
+      </c>
       <c r="B96" s="3">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -6329,7 +6520,7 @@
         <v>262</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H96" s="40" t="s">
         <v>257</v>
@@ -6337,8 +6528,12 @@
       <c r="I96" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="36"/>
-      <c r="K96" s="35"/>
+      <c r="J96" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L96" s="42">
         <v>45117</v>
       </c>
@@ -6349,7 +6544,9 @@
       <c r="O96" s="35"/>
     </row>
     <row r="97" spans="1:15" ht="73.5">
-      <c r="A97" s="3"/>
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
       <c r="B97" s="3">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -6368,7 +6565,7 @@
         <v>262</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>257</v>
@@ -6376,8 +6573,12 @@
       <c r="I97" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="36"/>
-      <c r="K97" s="35"/>
+      <c r="J97" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L97" s="42">
         <v>45117</v>
       </c>
@@ -6388,7 +6589,9 @@
       <c r="O97" s="35"/>
     </row>
     <row r="98" spans="1:15" ht="73.5">
-      <c r="A98" s="3"/>
+      <c r="A98" s="3">
+        <v>4</v>
+      </c>
       <c r="B98" s="3">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -6407,7 +6610,7 @@
         <v>262</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H98" s="40" t="s">
         <v>257</v>
@@ -6415,8 +6618,12 @@
       <c r="I98" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J98" s="36"/>
-      <c r="K98" s="35"/>
+      <c r="J98" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L98" s="42">
         <v>45117</v>
       </c>
@@ -6427,7 +6634,9 @@
       <c r="O98" s="35"/>
     </row>
     <row r="99" spans="1:15" ht="73.5">
-      <c r="A99" s="3"/>
+      <c r="A99" s="3">
+        <v>4</v>
+      </c>
       <c r="B99" s="3">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -6446,7 +6655,7 @@
         <v>262</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H99" s="40" t="s">
         <v>257</v>
@@ -6454,8 +6663,12 @@
       <c r="I99" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="36"/>
-      <c r="K99" s="35"/>
+      <c r="J99" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L99" s="42">
         <v>45117</v>
       </c>
@@ -6466,7 +6679,9 @@
       <c r="O99" s="35"/>
     </row>
     <row r="100" spans="1:15" ht="73.5">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3">
+        <v>4</v>
+      </c>
       <c r="B100" s="3">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -6485,7 +6700,7 @@
         <v>262</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H100" s="40" t="s">
         <v>257</v>
@@ -6493,8 +6708,12 @@
       <c r="I100" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="36"/>
-      <c r="K100" s="35"/>
+      <c r="J100" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L100" s="42">
         <v>45117</v>
       </c>
@@ -6505,7 +6724,9 @@
       <c r="O100" s="35"/>
     </row>
     <row r="101" spans="1:15" ht="73.5">
-      <c r="A101" s="3"/>
+      <c r="A101" s="3">
+        <v>4</v>
+      </c>
       <c r="B101" s="3">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -6524,7 +6745,7 @@
         <v>262</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H101" s="40" t="s">
         <v>257</v>
@@ -6532,8 +6753,12 @@
       <c r="I101" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="36"/>
-      <c r="K101" s="35"/>
+      <c r="J101" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L101" s="42">
         <v>45117</v>
       </c>
@@ -6544,7 +6769,9 @@
       <c r="O101" s="35"/>
     </row>
     <row r="102" spans="1:15" ht="36.75">
-      <c r="A102" s="3"/>
+      <c r="A102" s="3">
+        <v>4</v>
+      </c>
       <c r="B102" s="3">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -6554,25 +6781,29 @@
         <v>85</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I102" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="36"/>
-      <c r="K102" s="35"/>
+      <c r="J102" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L102" s="42">
         <v>45117</v>
       </c>
@@ -6583,7 +6814,9 @@
       <c r="O102" s="35"/>
     </row>
     <row r="103" spans="1:15" ht="36.75">
-      <c r="A103" s="3"/>
+      <c r="A103" s="3">
+        <v>4</v>
+      </c>
       <c r="B103" s="3">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -6593,25 +6826,29 @@
         <v>85</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I103" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="36"/>
-      <c r="K103" s="35"/>
+      <c r="J103" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L103" s="42">
         <v>45117</v>
       </c>
@@ -6622,7 +6859,9 @@
       <c r="O103" s="35"/>
     </row>
     <row r="104" spans="1:15" ht="92.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="3">
+        <v>4</v>
+      </c>
       <c r="B104" s="3">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -6635,19 +6874,23 @@
         <v>254</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I104" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J104" s="36"/>
-      <c r="K104" s="35"/>
+      <c r="J104" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L104" s="42">
         <v>45117</v>
       </c>
@@ -6658,7 +6901,9 @@
       <c r="O104" s="35"/>
     </row>
     <row r="105" spans="1:15" ht="73.5">
-      <c r="A105" s="3"/>
+      <c r="A105" s="3">
+        <v>4</v>
+      </c>
       <c r="B105" s="3">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -6674,19 +6919,23 @@
         <v>51</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I105" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="36"/>
-      <c r="K105" s="35"/>
+      <c r="J105" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L105" s="42">
         <v>45117</v>
       </c>
@@ -6697,7 +6946,9 @@
       <c r="O105" s="35"/>
     </row>
     <row r="106" spans="1:15" ht="73.5">
-      <c r="A106" s="3"/>
+      <c r="A106" s="3">
+        <v>4</v>
+      </c>
       <c r="B106" s="3">
         <f t="shared" si="6"/>
         <v>105</v>
@@ -6713,19 +6964,23 @@
         <v>16</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G106" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H106" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="H106" s="40" t="s">
-        <v>284</v>
-      </c>
       <c r="I106" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="36"/>
-      <c r="K106" s="35"/>
+      <c r="J106" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L106" s="42">
         <v>45117</v>
       </c>
@@ -6736,7 +6991,9 @@
       <c r="O106" s="35"/>
     </row>
     <row r="107" spans="1:15" ht="73.5">
-      <c r="A107" s="3"/>
+      <c r="A107" s="3">
+        <v>4</v>
+      </c>
       <c r="B107" s="3">
         <f t="shared" si="6"/>
         <v>106</v>
@@ -6752,19 +7009,23 @@
         <v>259</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I107" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J107" s="36"/>
-      <c r="K107" s="35"/>
+      <c r="J107" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L107" s="42">
         <v>45117</v>
       </c>
@@ -6775,7 +7036,9 @@
       <c r="O107" s="35"/>
     </row>
     <row r="108" spans="1:15" ht="73.5">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3">
+        <v>4</v>
+      </c>
       <c r="B108" s="3">
         <f t="shared" si="6"/>
         <v>107</v>
@@ -6791,19 +7054,23 @@
         <v>261</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I108" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="36"/>
-      <c r="K108" s="35"/>
+      <c r="J108" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L108" s="42">
         <v>45117</v>
       </c>
@@ -6814,7 +7081,9 @@
       <c r="O108" s="35"/>
     </row>
     <row r="109" spans="1:15" ht="73.5">
-      <c r="A109" s="3"/>
+      <c r="A109" s="3">
+        <v>4</v>
+      </c>
       <c r="B109" s="3">
         <f t="shared" si="6"/>
         <v>108</v>
@@ -6830,19 +7099,23 @@
         <v>138</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I109" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J109" s="36"/>
-      <c r="K109" s="35"/>
+      <c r="J109" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L109" s="42">
         <v>45117</v>
       </c>
@@ -6853,7 +7126,9 @@
       <c r="O109" s="35"/>
     </row>
     <row r="110" spans="1:15" ht="73.5">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3">
+        <v>4</v>
+      </c>
       <c r="B110" s="3">
         <f t="shared" si="6"/>
         <v>109</v>
@@ -6869,19 +7144,23 @@
         <v>178</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I110" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J110" s="36"/>
-      <c r="K110" s="35"/>
+      <c r="J110" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K110" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="L110" s="42">
         <v>45117</v>
       </c>
@@ -6889,12 +7168,16 @@
         <v>21</v>
       </c>
       <c r="N110" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="O110" s="35"/>
+        <v>291</v>
+      </c>
+      <c r="O110" s="35" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="111" spans="1:15" ht="73.5">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3">
+        <v>4</v>
+      </c>
       <c r="B111" s="3">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -6910,19 +7193,23 @@
         <v>193</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I111" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J111" s="36"/>
-      <c r="K111" s="35"/>
+      <c r="J111" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L111" s="42">
         <v>45117</v>
       </c>
@@ -6933,7 +7220,9 @@
       <c r="O111" s="35"/>
     </row>
     <row r="112" spans="1:15" ht="73.5">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3">
+        <v>4</v>
+      </c>
       <c r="B112" s="3">
         <f t="shared" si="6"/>
         <v>111</v>
@@ -6949,19 +7238,23 @@
         <v>113</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I112" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="36"/>
-      <c r="K112" s="35"/>
+      <c r="J112" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L112" s="42">
         <v>45117</v>
       </c>
@@ -6972,7 +7265,9 @@
       <c r="O112" s="35"/>
     </row>
     <row r="113" spans="1:15" ht="73.5">
-      <c r="A113" s="3"/>
+      <c r="A113" s="3">
+        <v>4</v>
+      </c>
       <c r="B113" s="3">
         <f t="shared" si="6"/>
         <v>112</v>
@@ -6988,19 +7283,23 @@
         <v>121</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I113" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="36"/>
-      <c r="K113" s="35"/>
+      <c r="J113" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L113" s="42">
         <v>45117</v>
       </c>
@@ -7011,7 +7310,9 @@
       <c r="O113" s="35"/>
     </row>
     <row r="114" spans="1:15" ht="73.5">
-      <c r="A114" s="3"/>
+      <c r="A114" s="3">
+        <v>4</v>
+      </c>
       <c r="B114" s="3">
         <f t="shared" si="6"/>
         <v>113</v>
@@ -7027,19 +7328,23 @@
         <v>128</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I114" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J114" s="36"/>
-      <c r="K114" s="35"/>
+      <c r="J114" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L114" s="42">
         <v>45117</v>
       </c>
@@ -7050,7 +7355,9 @@
       <c r="O114" s="35"/>
     </row>
     <row r="115" spans="1:15" ht="36.75">
-      <c r="A115" s="3"/>
+      <c r="A115" s="3">
+        <v>4</v>
+      </c>
       <c r="B115" s="3">
         <f t="shared" si="6"/>
         <v>114</v>
@@ -7060,25 +7367,29 @@
         <v>103</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I115" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J115" s="36"/>
-      <c r="K115" s="35"/>
+      <c r="J115" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L115" s="42">
         <v>45117</v>
       </c>
@@ -7089,7 +7400,9 @@
       <c r="O115" s="35"/>
     </row>
     <row r="116" spans="1:15" ht="36.75">
-      <c r="A116" s="3"/>
+      <c r="A116" s="3">
+        <v>4</v>
+      </c>
       <c r="B116" s="3">
         <f t="shared" si="6"/>
         <v>115</v>
@@ -7099,25 +7412,29 @@
         <v>103</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I116" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J116" s="36"/>
-      <c r="K116" s="35"/>
+      <c r="J116" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L116" s="42">
         <v>45117</v>
       </c>
@@ -7128,7 +7445,9 @@
       <c r="O116" s="35"/>
     </row>
     <row r="117" spans="1:15" ht="55.5">
-      <c r="A117" s="3"/>
+      <c r="A117" s="3">
+        <v>4</v>
+      </c>
       <c r="B117" s="3">
         <f t="shared" si="6"/>
         <v>116</v>
@@ -7138,25 +7457,29 @@
         <v>103</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I117" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J117" s="36"/>
-      <c r="K117" s="35"/>
+      <c r="J117" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K117" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="L117" s="42">
         <v>45117</v>
       </c>
@@ -7164,239 +7487,478 @@
         <v>21</v>
       </c>
       <c r="N117" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="O117" s="35"/>
+        <v>300</v>
+      </c>
+      <c r="O117" s="35" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="3"/>
+      <c r="A118" s="3">
+        <v>4</v>
+      </c>
       <c r="B118" s="3">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="35"/>
+      <c r="C118" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H118" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I118" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L118" s="44"/>
       <c r="M118" s="43"/>
       <c r="N118" s="45"/>
       <c r="O118" s="35"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="3"/>
+      <c r="A119" s="3">
+        <v>4</v>
+      </c>
       <c r="B119" s="3">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="35"/>
+      <c r="C119" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I119" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L119" s="44"/>
       <c r="M119" s="43"/>
       <c r="N119" s="45"/>
       <c r="O119" s="35"/>
     </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="3"/>
+    <row r="120" spans="1:15" ht="36.75">
+      <c r="A120" s="3">
+        <v>4</v>
+      </c>
       <c r="B120" s="3">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="35"/>
+      <c r="C120" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H120" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="I120" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L120" s="44"/>
       <c r="M120" s="43"/>
       <c r="N120" s="45"/>
       <c r="O120" s="35"/>
     </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="3"/>
+    <row r="121" spans="1:15" ht="36.75">
+      <c r="A121" s="3">
+        <v>4</v>
+      </c>
       <c r="B121" s="3">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="40"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="35"/>
+      <c r="C121" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H121" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="I121" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L121" s="44"/>
       <c r="M121" s="43"/>
       <c r="N121" s="45"/>
       <c r="O121" s="35"/>
     </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="3"/>
+    <row r="122" spans="1:15" ht="36.75">
+      <c r="A122" s="3">
+        <v>4</v>
+      </c>
       <c r="B122" s="3">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="35"/>
+      <c r="C122" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="I122" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L122" s="44"/>
       <c r="M122" s="43"/>
       <c r="N122" s="45"/>
       <c r="O122" s="35"/>
     </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="3"/>
+    <row r="123" spans="1:15" ht="36.75">
+      <c r="A123" s="3">
+        <v>4</v>
+      </c>
       <c r="B123" s="3">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="35"/>
+      <c r="C123" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H123" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="I123" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L123" s="44"/>
       <c r="M123" s="43"/>
       <c r="N123" s="45"/>
       <c r="O123" s="35"/>
     </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="3"/>
+    <row r="124" spans="1:15" ht="36.75">
+      <c r="A124" s="3">
+        <v>4</v>
+      </c>
       <c r="B124" s="3">
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="35"/>
+      <c r="C124" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H124" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="I124" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L124" s="44"/>
       <c r="M124" s="43"/>
       <c r="N124" s="45"/>
       <c r="O124" s="35"/>
     </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="3"/>
+    <row r="125" spans="1:15" ht="36.75">
+      <c r="A125" s="3">
+        <v>4</v>
+      </c>
       <c r="B125" s="3">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="35"/>
+      <c r="C125" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H125" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="I125" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L125" s="44"/>
       <c r="M125" s="43"/>
       <c r="N125" s="45"/>
       <c r="O125" s="35"/>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="3"/>
+    <row r="126" spans="1:15" ht="36.75">
+      <c r="A126" s="3">
+        <v>4</v>
+      </c>
       <c r="B126" s="3">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="40"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="35"/>
+      <c r="C126" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H126" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="I126" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L126" s="44"/>
       <c r="M126" s="43"/>
       <c r="N126" s="45"/>
       <c r="O126" s="35"/>
     </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="3"/>
+    <row r="127" spans="1:15" ht="147">
+      <c r="A127" s="3">
+        <v>4</v>
+      </c>
       <c r="B127" s="3">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="40"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="35"/>
+      <c r="C127" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I127" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L127" s="44"/>
       <c r="M127" s="43"/>
       <c r="N127" s="45"/>
       <c r="O127" s="35"/>
     </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="3"/>
+    <row r="128" spans="1:15" ht="55.5">
+      <c r="A128" s="3">
+        <v>4</v>
+      </c>
       <c r="B128" s="3">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="40"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="35"/>
+      <c r="C128" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H128" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L128" s="44"/>
       <c r="M128" s="43"/>
       <c r="N128" s="45"/>
       <c r="O128" s="35"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="3"/>
+      <c r="A129" s="3">
+        <v>4</v>
+      </c>
       <c r="B129" s="3">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="C129" s="9"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="D129" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="F129" s="13"/>
       <c r="G129" s="4"/>
       <c r="H129" s="40"/>
@@ -7416,7 +7978,9 @@
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="E130" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F130" s="13"/>
       <c r="G130" s="4"/>
       <c r="H130" s="40"/>
@@ -7428,7 +7992,7 @@
       <c r="N130" s="45"/>
       <c r="O130" s="35"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" ht="36.75">
       <c r="A131" s="3"/>
       <c r="B131" s="3">
         <f t="shared" si="6"/>
@@ -7436,7 +8000,9 @@
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="F131" s="13"/>
       <c r="G131" s="4"/>
       <c r="H131" s="40"/>
@@ -7448,7 +8014,7 @@
       <c r="N131" s="45"/>
       <c r="O131" s="35"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" ht="36.75">
       <c r="A132" s="3"/>
       <c r="B132" s="3">
         <f t="shared" si="6"/>
@@ -7456,7 +8022,9 @@
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="E132" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="F132" s="13"/>
       <c r="G132" s="4"/>
       <c r="H132" s="40"/>
@@ -7476,7 +8044,9 @@
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="E133" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="F133" s="13"/>
       <c r="G133" s="4"/>
       <c r="H133" s="40"/>
@@ -7488,7 +8058,7 @@
       <c r="N133" s="45"/>
       <c r="O133" s="35"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" ht="36.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3">
         <f t="shared" si="6"/>
@@ -7496,7 +8066,9 @@
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="E134" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="F134" s="13"/>
       <c r="G134" s="4"/>
       <c r="H134" s="40"/>
@@ -7508,7 +8080,7 @@
       <c r="N134" s="45"/>
       <c r="O134" s="35"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" ht="36.75">
       <c r="A135" s="3"/>
       <c r="B135" s="3">
         <f t="shared" si="6"/>
@@ -7516,7 +8088,9 @@
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="E135" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="F135" s="13"/>
       <c r="G135" s="4"/>
       <c r="H135" s="40"/>
@@ -7527,6 +8101,310 @@
       <c r="M135" s="43"/>
       <c r="N135" s="45"/>
       <c r="O135" s="35"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="44"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="45"/>
+      <c r="O136" s="35"/>
+    </row>
+    <row r="137" spans="1:15" ht="36.75">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="44"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="45"/>
+      <c r="O137" s="35"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="44"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="45"/>
+      <c r="O138" s="35"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="44"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="35"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="44"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="35"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="44"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="35"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="44"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="45"/>
+      <c r="O142" s="35"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="34"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="44"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="35"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="34"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="44"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="35"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="44"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="35"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="44"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="45"/>
+      <c r="O146" s="35"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="44"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="45"/>
+      <c r="O147" s="35"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="44"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="35"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="44"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="35"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3">
+        <f t="shared" ref="B150" si="8">ROW()-1</f>
+        <v>149</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="44"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
@@ -7617,63 +8495,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -7681,31 +8559,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -7713,13 +8591,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -7727,13 +8605,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -7741,13 +8619,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -7755,13 +8633,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -7769,13 +8647,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -7783,13 +8661,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -7797,13 +8675,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -7811,13 +8689,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -7825,13 +8703,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -7839,13 +8717,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -7853,13 +8731,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -7867,13 +8745,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -7881,13 +8759,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -7895,7 +8773,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -7903,7 +8781,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -7911,7 +8789,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -7919,7 +8797,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -7927,7 +8805,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -7935,7 +8813,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -7943,7 +8821,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -7951,7 +8829,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -7959,7 +8837,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -7967,7 +8845,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -7975,7 +8853,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -7983,7 +8861,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -7991,7 +8869,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -7999,7 +8877,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -8007,7 +8885,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -8015,7 +8893,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -8023,7 +8901,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -8031,7 +8909,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -8039,7 +8917,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -8047,7 +8925,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -8055,7 +8933,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -8063,7 +8941,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -8071,7 +8949,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -8079,7 +8957,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -8087,7 +8965,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -8095,7 +8973,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -8103,7 +8981,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -8111,7 +8989,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -8119,7 +8997,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -8127,7 +9005,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -8135,7 +9013,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -8143,7 +9021,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>

--- a/test_case/integration-test-case_v4.xlsx
+++ b/test_case/integration-test-case_v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C537E8-BAE6-49AF-AD59-DEE872BD0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A08FC3-BB2D-4E77-B7D2-2E4636774C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="431">
   <si>
     <t>ver</t>
   </si>
@@ -998,6 +998,9 @@
     <t>表示されるがデバッグ用の関数も表示された</t>
   </si>
   <si>
+    <t>デバッグ用の関数を消す</t>
+  </si>
+  <si>
     <t>ログイン時、DBの接続時にエラーとなる場合、エラーメッセージを表示する</t>
   </si>
   <si>
@@ -1323,6 +1326,27 @@
   </si>
   <si>
     <t>アクセス制限</t>
+  </si>
+  <si>
+    <t>ログインせずアクセスするとエラー画面へ遷移する</t>
+  </si>
+  <si>
+    <t>アクセスできてしまう</t>
+  </si>
+  <si>
+    <t>条件文の差し替え</t>
+  </si>
+  <si>
+    <t>「データの呼び出しに失敗しました」の表示になる</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント更新できません。」の表示になる</t>
+  </si>
+  <si>
+    <t>構文エラーになる</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント削除できません。」の表示になる</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -2339,11 +2363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138:E150"/>
+      <pane ySplit="1" topLeftCell="G31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3889,28 +3913,28 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="36.75">
+    <row r="36" spans="1:15" ht="54">
       <c r="A36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>20</v>
@@ -3922,20 +3946,24 @@
         <v>20</v>
       </c>
       <c r="L36" s="42">
-        <v>45093</v>
+        <v>45121</v>
       </c>
       <c r="M36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="35"/>
+      <c r="N36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="O36" s="45" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="36.75">
       <c r="A37" s="3">
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="12" t="s">
@@ -3971,75 +3999,72 @@
       <c r="N37" s="45"/>
       <c r="O37" s="35"/>
     </row>
-    <row r="38" spans="1:15" ht="55.5">
+    <row r="38" spans="1:15" ht="36.75">
       <c r="A38" s="3">
         <v>3</v>
       </c>
       <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="42">
+        <v>45093</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" ht="55.5">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C39" s="47">
         <f>$B$35</f>
         <v>34</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="42">
-        <v>45093</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:15" ht="36.75">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3">
-        <v>38</v>
-      </c>
-      <c r="C39" s="47">
-        <f>$B$38</f>
-        <v>37</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>20</v>
@@ -4064,26 +4089,26 @@
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="47">
         <f>$B$39</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I40" s="34" t="s">
         <v>20</v>
@@ -4108,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="47">
-        <f>$B$39</f>
+        <f>$B$40</f>
         <v>38</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4121,13 +4146,13 @@
         <v>121</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="34" t="s">
         <v>20</v>
@@ -4147,31 +4172,31 @@
       <c r="N41" s="45"/>
       <c r="O41" s="35"/>
     </row>
-    <row r="42" spans="1:15" ht="55.5">
+    <row r="42" spans="1:15" ht="36.75">
       <c r="A42" s="3">
         <v>3</v>
       </c>
       <c r="B42" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="47">
-        <f>$B$41</f>
-        <v>40</v>
+        <f>$B$40</f>
+        <v>38</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>20</v>
@@ -4191,31 +4216,31 @@
       <c r="N42" s="45"/>
       <c r="O42" s="35"/>
     </row>
-    <row r="43" spans="1:15" ht="36.75">
+    <row r="43" spans="1:15" ht="55.5">
       <c r="A43" s="3">
         <v>3</v>
       </c>
       <c r="B43" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="47">
-        <f>$B$41</f>
+        <f>$B$42</f>
         <v>40</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>20</v>
@@ -4240,26 +4265,26 @@
         <v>3</v>
       </c>
       <c r="B44" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="47">
-        <f>$B$39</f>
-        <v>38</v>
+        <f>$B$42</f>
+        <v>40</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>20</v>
@@ -4284,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="47">
-        <f>$B$39</f>
+        <f>$B$40</f>
         <v>38</v>
       </c>
       <c r="D45" s="12" t="s">
@@ -4297,13 +4322,13 @@
         <v>121</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>20</v>
@@ -4328,26 +4353,26 @@
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="47">
-        <f>$B$41</f>
-        <v>40</v>
+        <f>$B$40</f>
+        <v>38</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>20</v>
@@ -4372,10 +4397,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="47">
-        <f>$B$41</f>
+        <f>$B$42</f>
         <v>40</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4388,10 +4413,10 @@
         <v>134</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>20</v>
@@ -4416,23 +4441,26 @@
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>47</v>
-      </c>
-      <c r="C48" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="47">
+        <f>$B$42</f>
+        <v>40</v>
+      </c>
       <c r="D48" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>20</v>
@@ -4452,31 +4480,28 @@
       <c r="N48" s="45"/>
       <c r="O48" s="35"/>
     </row>
-    <row r="49" spans="1:15" ht="92.25">
+    <row r="49" spans="1:15" ht="36.75">
       <c r="A49" s="3">
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>48</v>
-      </c>
-      <c r="C49" s="47">
-        <f>$B$48</f>
         <v>47</v>
       </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="12" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>20</v>
@@ -4501,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="47">
-        <f t="shared" ref="C50:C51" si="4">$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D50" s="12" t="s">
@@ -4514,13 +4539,13 @@
         <v>138</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>20</v>
@@ -4545,10 +4570,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C51:C52" si="4">$B$49</f>
         <v>47</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -4558,13 +4583,13 @@
         <v>138</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>20</v>
@@ -4589,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="47">
-        <f>$B$48</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -4602,13 +4627,13 @@
         <v>138</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I52" s="34" t="s">
         <v>20</v>
@@ -4628,15 +4653,15 @@
       <c r="N52" s="45"/>
       <c r="O52" s="35"/>
     </row>
-    <row r="53" spans="1:15" ht="73.5">
+    <row r="53" spans="1:15" ht="92.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -4646,13 +4671,13 @@
         <v>138</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I53" s="34" t="s">
         <v>20</v>
@@ -4677,10 +4702,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -4690,13 +4715,13 @@
         <v>138</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I54" s="34" t="s">
         <v>20</v>
@@ -4716,15 +4741,15 @@
       <c r="N54" s="45"/>
       <c r="O54" s="35"/>
     </row>
-    <row r="55" spans="1:15" ht="92.25">
+    <row r="55" spans="1:15" ht="73.5">
       <c r="A55" s="3">
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D55" s="12" t="s">
@@ -4734,13 +4759,13 @@
         <v>138</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I55" s="34" t="s">
         <v>20</v>
@@ -4765,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D56" s="12" t="s">
@@ -4778,13 +4803,13 @@
         <v>138</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I56" s="34" t="s">
         <v>20</v>
@@ -4809,10 +4834,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -4822,13 +4847,13 @@
         <v>138</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I57" s="34" t="s">
         <v>20</v>
@@ -4853,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -4866,13 +4891,13 @@
         <v>138</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I58" s="34" t="s">
         <v>20</v>
@@ -4897,10 +4922,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -4913,10 +4938,10 @@
         <v>166</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I59" s="34" t="s">
         <v>20</v>
@@ -4941,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -4954,13 +4979,13 @@
         <v>138</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I60" s="34" t="s">
         <v>20</v>
@@ -4985,10 +5010,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -4998,13 +5023,13 @@
         <v>138</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I61" s="34" t="s">
         <v>20</v>
@@ -5024,31 +5049,31 @@
       <c r="N61" s="45"/>
       <c r="O61" s="35"/>
     </row>
-    <row r="62" spans="1:15" ht="36.75">
+    <row r="62" spans="1:15" ht="92.25">
       <c r="A62" s="3">
         <v>3</v>
       </c>
       <c r="B62" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="I62" s="34" t="s">
         <v>20</v>
@@ -5068,15 +5093,15 @@
       <c r="N62" s="45"/>
       <c r="O62" s="35"/>
     </row>
-    <row r="63" spans="1:15" ht="256.5">
+    <row r="63" spans="1:15" ht="36.75">
       <c r="A63" s="3">
         <v>3</v>
       </c>
       <c r="B63" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D63" s="12" t="s">
@@ -5085,14 +5110,14 @@
       <c r="E63" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="I63" s="34" t="s">
         <v>20</v>
@@ -5112,31 +5137,31 @@
       <c r="N63" s="45"/>
       <c r="O63" s="35"/>
     </row>
-    <row r="64" spans="1:15" ht="73.5">
+    <row r="64" spans="1:15" ht="256.5">
       <c r="A64" s="3">
         <v>3</v>
       </c>
       <c r="B64" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="47">
-        <f>$B$62</f>
-        <v>61</v>
+        <f>$B$49</f>
+        <v>47</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="I64" s="34" t="s">
         <v>20</v>
@@ -5161,11 +5186,11 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="47">
         <f>$B$63</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>53</v>
@@ -5180,7 +5205,7 @@
         <v>55</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I65" s="34" t="s">
         <v>20</v>
@@ -5200,31 +5225,31 @@
       <c r="N65" s="45"/>
       <c r="O65" s="35"/>
     </row>
-    <row r="66" spans="1:16" ht="36.75">
+    <row r="66" spans="1:16" ht="73.5">
       <c r="A66" s="3">
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="47">
-        <f>$B$48</f>
-        <v>47</v>
+        <f>$B$64</f>
+        <v>62</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>178</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>137</v>
+        <v>179</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="I66" s="34" t="s">
         <v>20</v>
@@ -5244,31 +5269,31 @@
       <c r="N66" s="45"/>
       <c r="O66" s="35"/>
     </row>
-    <row r="67" spans="1:16" ht="55.5">
+    <row r="67" spans="1:16" ht="36.75">
       <c r="A67" s="3">
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="47">
-        <f>$B$65</f>
-        <v>64</v>
+        <f>$B$49</f>
+        <v>47</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="I67" s="34" t="s">
         <v>20</v>
@@ -5288,40 +5313,40 @@
       <c r="N67" s="45"/>
       <c r="O67" s="35"/>
     </row>
-    <row r="68" spans="1:16" ht="36.75">
+    <row r="68" spans="1:16" ht="55.5">
       <c r="A68" s="3">
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="47">
-        <f>$B$48</f>
-        <v>47</v>
+        <f>$B$66</f>
+        <v>64</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>24</v>
+        <v>183</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>184</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L68" s="42">
         <v>45093</v>
@@ -5329,22 +5354,18 @@
       <c r="M68" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="O68" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="N68" s="45"/>
+      <c r="O68" s="35"/>
     </row>
     <row r="69" spans="1:16" ht="36.75">
       <c r="A69" s="3">
         <v>3</v>
       </c>
       <c r="B69" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="47">
-        <f>$B$48</f>
+        <f>$B$49</f>
         <v>47</v>
       </c>
       <c r="D69" s="12" t="s">
@@ -5354,22 +5375,22 @@
         <v>178</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J69" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K69" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L69" s="42">
         <v>45093</v>
@@ -5377,19 +5398,23 @@
       <c r="M69" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="45"/>
-      <c r="O69" s="35"/>
+      <c r="N69" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="O69" s="35" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="70" spans="1:16" ht="36.75">
       <c r="A70" s="3">
         <v>3</v>
       </c>
       <c r="B70" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="47">
-        <f>$B$65</f>
-        <v>64</v>
+        <f>$B$49</f>
+        <v>47</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>15</v>
@@ -5398,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="I70" s="34" t="s">
         <v>20</v>
@@ -5429,26 +5454,26 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="47">
-        <f>$B$70</f>
-        <v>69</v>
+        <f>$B$66</f>
+        <v>64</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I71" s="34" t="s">
         <v>20</v>
@@ -5473,26 +5498,26 @@
         <v>3</v>
       </c>
       <c r="B72" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="47">
-        <f>$B$65</f>
-        <v>64</v>
+        <f>$B$71</f>
+        <v>69</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>193</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="I72" s="34" t="s">
         <v>20</v>
@@ -5512,40 +5537,40 @@
       <c r="N72" s="45"/>
       <c r="O72" s="35"/>
     </row>
-    <row r="73" spans="1:16" ht="55.5">
+    <row r="73" spans="1:16" ht="36.75">
       <c r="A73" s="3">
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="47">
-        <f>$B$65</f>
+        <f>$B$66</f>
         <v>64</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>193</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J73" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L73" s="42">
         <v>45093</v>
@@ -5553,44 +5578,43 @@
       <c r="M73" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="O73" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="73.5">
+      <c r="N73" s="45"/>
+      <c r="O73" s="35"/>
+    </row>
+    <row r="74" spans="1:16" ht="55.5">
       <c r="A74" s="3">
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <v>73</v>
-      </c>
-      <c r="C74" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="47">
+        <f>$B$66</f>
+        <v>64</v>
+      </c>
       <c r="D74" s="12" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>206</v>
+        <v>199</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J74" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L74" s="42">
         <v>45093</v>
@@ -5598,19 +5622,23 @@
       <c r="M74" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="45"/>
-      <c r="O74" s="35"/>
-    </row>
-    <row r="75" spans="1:16" ht="129">
+      <c r="N74" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="O74" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="73.5">
       <c r="A75" s="3">
         <v>3</v>
       </c>
       <c r="B75" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>62</v>
@@ -5619,10 +5647,10 @@
         <v>204</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I75" s="34" t="s">
         <v>20</v>
@@ -5642,16 +5670,16 @@
       <c r="N75" s="45"/>
       <c r="O75" s="35"/>
     </row>
-    <row r="76" spans="1:16" ht="293.25">
+    <row r="76" spans="1:16" ht="129">
       <c r="A76" s="3">
         <v>3</v>
       </c>
       <c r="B76" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>62</v>
@@ -5660,10 +5688,10 @@
         <v>204</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I76" s="34" t="s">
         <v>20</v>
@@ -5683,12 +5711,12 @@
       <c r="N76" s="45"/>
       <c r="O76" s="35"/>
     </row>
-    <row r="77" spans="1:16" ht="366.75">
+    <row r="77" spans="1:16" ht="293.25">
       <c r="A77" s="3">
         <v>3</v>
       </c>
       <c r="B77" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="12" t="s">
@@ -5698,13 +5726,13 @@
         <v>62</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I77" s="34" t="s">
         <v>20</v>
@@ -5724,17 +5752,14 @@
       <c r="N77" s="45"/>
       <c r="O77" s="35"/>
     </row>
-    <row r="78" spans="1:16" ht="78.75" customHeight="1">
+    <row r="78" spans="1:16" ht="366.75">
       <c r="A78" s="3">
         <v>3</v>
       </c>
       <c r="B78" s="3">
-        <v>77</v>
-      </c>
-      <c r="C78" s="47">
-        <f>$B$77</f>
         <v>76</v>
       </c>
+      <c r="C78" s="47"/>
       <c r="D78" s="12" t="s">
         <v>210</v>
       </c>
@@ -5742,13 +5767,13 @@
         <v>62</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I78" s="34" t="s">
         <v>20</v>
@@ -5766,34 +5791,33 @@
         <v>21</v>
       </c>
       <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="55.5">
+      <c r="O78" s="35"/>
+    </row>
+    <row r="79" spans="1:16" ht="78.75" customHeight="1">
       <c r="A79" s="3">
         <v>3</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" ref="B78:B85" si="5">ROW()-1</f>
-        <v>78</v>
-      </c>
-      <c r="C79" s="47"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="47">
+        <f>$B$78</f>
+        <v>76</v>
+      </c>
       <c r="D79" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I79" s="34" t="s">
         <v>20</v>
@@ -5805,20 +5829,23 @@
         <v>20</v>
       </c>
       <c r="L79" s="42">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="M79" s="43" t="s">
         <v>21</v>
       </c>
       <c r="N79" s="45"/>
-      <c r="O79" s="35"/>
+      <c r="O79" s="45"/>
+      <c r="P79" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="80" spans="1:16" ht="55.5">
       <c r="A80" s="3">
         <v>3</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B79:B86" si="5">ROW()-1</f>
         <v>79</v>
       </c>
       <c r="C80" s="47"/>
@@ -5826,13 +5853,13 @@
         <v>219</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H80" s="40" t="s">
         <v>222</v>
@@ -5868,13 +5895,13 @@
         <v>219</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H81" s="40" t="s">
         <v>222</v>
@@ -5910,13 +5937,13 @@
         <v>219</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H82" s="40" t="s">
         <v>222</v>
@@ -5952,13 +5979,13 @@
         <v>219</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H83" s="40" t="s">
         <v>222</v>
@@ -5991,19 +6018,19 @@
       </c>
       <c r="C84" s="47"/>
       <c r="D84" s="12" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I84" s="34" t="s">
         <v>20</v>
@@ -6033,19 +6060,19 @@
       </c>
       <c r="C85" s="47"/>
       <c r="D85" s="12" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I85" s="34" t="s">
         <v>20</v>
@@ -6067,27 +6094,27 @@
     </row>
     <row r="86" spans="1:15" ht="55.5">
       <c r="A86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" ref="B86:B149" si="6">ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I86" s="34" t="s">
         <v>20</v>
@@ -6099,7 +6126,7 @@
         <v>20</v>
       </c>
       <c r="L86" s="42">
-        <v>45117</v>
+        <v>45100</v>
       </c>
       <c r="M86" s="43" t="s">
         <v>21</v>
@@ -6112,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B87:B150" si="6">ROW()-1</f>
         <v>86</v>
       </c>
       <c r="C87" s="9"/>
@@ -6123,13 +6150,13 @@
         <v>239</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I87" s="34" t="s">
         <v>20</v>
@@ -6165,31 +6192,33 @@
         <v>239</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J88" s="36"/>
-      <c r="K88" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="J88" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="L88" s="42">
         <v>45117</v>
       </c>
       <c r="M88" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="45" t="s">
-        <v>249</v>
-      </c>
+      <c r="N88" s="45"/>
       <c r="O88" s="35"/>
     </row>
-    <row r="89" spans="1:15" ht="73.5">
+    <row r="89" spans="1:15" ht="55.5">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -6199,28 +6228,28 @@
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="12" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J89" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L89" s="42">
         <v>45117</v>
@@ -6228,10 +6257,14 @@
       <c r="M89" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N89" s="45"/>
-      <c r="O89" s="35"/>
-    </row>
-    <row r="90" spans="1:15" ht="92.25">
+      <c r="N89" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="O89" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="73.5">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -6239,24 +6272,21 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="C90" s="9">
-        <f>$B$86</f>
-        <v>85</v>
-      </c>
+      <c r="C90" s="9"/>
       <c r="D90" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H90" s="40" t="s">
         <v>253</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="I90" s="34" t="s">
         <v>20</v>
@@ -6285,23 +6315,23 @@
         <v>90</v>
       </c>
       <c r="C91" s="9">
-        <f>$B$86</f>
-        <v>85</v>
+        <f>$B$87</f>
+        <v>86</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G91" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H91" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="H91" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="I91" s="34" t="s">
         <v>20</v>
@@ -6321,7 +6351,7 @@
       <c r="N91" s="45"/>
       <c r="O91" s="35"/>
     </row>
-    <row r="92" spans="1:15" ht="330">
+    <row r="92" spans="1:15" ht="92.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -6329,21 +6359,24 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="9">
+        <f>$B$87</f>
+        <v>86</v>
+      </c>
       <c r="D92" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E92" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="H92" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I92" s="34" t="s">
         <v>20</v>
@@ -6363,7 +6396,7 @@
       <c r="N92" s="45"/>
       <c r="O92" s="35"/>
     </row>
-    <row r="93" spans="1:15" ht="73.5">
+    <row r="93" spans="1:15" ht="330">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -6371,24 +6404,21 @@
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="C93" s="9">
-        <f>$B$92</f>
-        <v>91</v>
-      </c>
+      <c r="C93" s="9"/>
       <c r="D93" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E93" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="H93" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I93" s="34" t="s">
         <v>20</v>
@@ -6408,7 +6438,7 @@
       <c r="N93" s="45"/>
       <c r="O93" s="35"/>
     </row>
-    <row r="94" spans="1:15" ht="275.25">
+    <row r="94" spans="1:15" ht="73.5">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -6421,19 +6451,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="H94" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I94" s="34" t="s">
         <v>20</v>
@@ -6453,7 +6483,7 @@
       <c r="N94" s="45"/>
       <c r="O94" s="35"/>
     </row>
-    <row r="95" spans="1:15" ht="73.5">
+    <row r="95" spans="1:15" ht="275.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -6462,23 +6492,23 @@
         <v>94</v>
       </c>
       <c r="C95" s="9">
-        <f>$B$86</f>
-        <v>85</v>
+        <f>$B$94</f>
+        <v>93</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>267</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I95" s="34" t="s">
         <v>20</v>
@@ -6507,23 +6537,23 @@
         <v>95</v>
       </c>
       <c r="C96" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$87</f>
+        <v>86</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>268</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I96" s="34" t="s">
         <v>20</v>
@@ -6556,19 +6586,19 @@
         <v>95</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>269</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I97" s="34" t="s">
         <v>20</v>
@@ -6601,19 +6631,19 @@
         <v>96</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>270</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I98" s="34" t="s">
         <v>20</v>
@@ -6642,23 +6672,23 @@
         <v>98</v>
       </c>
       <c r="C99" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$98</f>
+        <v>97</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I99" s="34" t="s">
         <v>20</v>
@@ -6687,23 +6717,23 @@
         <v>99</v>
       </c>
       <c r="C100" s="9">
-        <f>$B$99</f>
-        <v>98</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>272</v>
       </c>
       <c r="H100" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I100" s="34" t="s">
         <v>20</v>
@@ -6736,19 +6766,19 @@
         <v>99</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>273</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I101" s="34" t="s">
         <v>20</v>
@@ -6768,7 +6798,7 @@
       <c r="N101" s="45"/>
       <c r="O101" s="35"/>
     </row>
-    <row r="102" spans="1:15" ht="36.75">
+    <row r="102" spans="1:15" ht="73.5">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -6777,23 +6807,23 @@
         <v>101</v>
       </c>
       <c r="C102" s="9">
-        <f>$B$86</f>
-        <v>85</v>
+        <f>$B$101</f>
+        <v>100</v>
       </c>
       <c r="D102" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="H102" s="40" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I102" s="34" t="s">
         <v>20</v>
@@ -6822,20 +6852,20 @@
         <v>102</v>
       </c>
       <c r="C103" s="9">
-        <f>$B$86</f>
-        <v>85</v>
+        <f>$B$87</f>
+        <v>86</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H103" s="40" t="s">
         <v>279</v>
@@ -6858,7 +6888,7 @@
       <c r="N103" s="45"/>
       <c r="O103" s="35"/>
     </row>
-    <row r="104" spans="1:15" ht="92.25">
+    <row r="104" spans="1:15" ht="36.75">
       <c r="A104" s="3">
         <v>4</v>
       </c>
@@ -6866,21 +6896,24 @@
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="9">
+        <f>$B$87</f>
+        <v>86</v>
+      </c>
       <c r="D104" s="12" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F104" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H104" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H104" s="40" t="s">
-        <v>282</v>
       </c>
       <c r="I104" s="34" t="s">
         <v>20</v>
@@ -6900,7 +6933,7 @@
       <c r="N104" s="45"/>
       <c r="O104" s="35"/>
     </row>
-    <row r="105" spans="1:15" ht="73.5">
+    <row r="105" spans="1:15" ht="92.25">
       <c r="A105" s="3">
         <v>4</v>
       </c>
@@ -6908,24 +6941,21 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="C105" s="9">
-        <f>$B$104</f>
-        <v>103</v>
-      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="F105" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H105" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H105" s="40" t="s">
-        <v>285</v>
       </c>
       <c r="I105" s="34" t="s">
         <v>20</v>
@@ -6954,23 +6984,23 @@
         <v>105</v>
       </c>
       <c r="C106" s="9">
-        <f t="shared" ref="C106:C115" si="7">$B$104</f>
-        <v>103</v>
+        <f>$B$105</f>
+        <v>104</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G106" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H106" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="H106" s="40" t="s">
-        <v>285</v>
       </c>
       <c r="I106" s="34" t="s">
         <v>20</v>
@@ -6999,23 +7029,23 @@
         <v>106</v>
       </c>
       <c r="C107" s="9">
-        <f t="shared" si="7"/>
-        <v>103</v>
+        <f t="shared" ref="C107:C116" si="7">$B$105</f>
+        <v>104</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>287</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I107" s="34" t="s">
         <v>20</v>
@@ -7045,22 +7075,22 @@
       </c>
       <c r="C108" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>288</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I108" s="34" t="s">
         <v>20</v>
@@ -7090,22 +7120,22 @@
       </c>
       <c r="C109" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>289</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I109" s="34" t="s">
         <v>20</v>
@@ -7135,31 +7165,31 @@
       </c>
       <c r="C110" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>290</v>
       </c>
       <c r="H110" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J110" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K110" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L110" s="42">
         <v>45117</v>
@@ -7167,12 +7197,8 @@
       <c r="M110" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N110" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="O110" s="35" t="s">
-        <v>292</v>
-      </c>
+      <c r="N110" s="45"/>
+      <c r="O110" s="35"/>
     </row>
     <row r="111" spans="1:15" ht="73.5">
       <c r="A111" s="3">
@@ -7184,31 +7210,31 @@
       </c>
       <c r="C111" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J111" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K111" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L111" s="42">
         <v>45117</v>
@@ -7216,8 +7242,12 @@
       <c r="M111" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N111" s="45"/>
-      <c r="O111" s="35"/>
+      <c r="N111" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="O111" s="35" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="112" spans="1:15" ht="73.5">
       <c r="A112" s="3">
@@ -7229,22 +7259,22 @@
       </c>
       <c r="C112" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>294</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I112" s="34" t="s">
         <v>20</v>
@@ -7274,22 +7304,22 @@
       </c>
       <c r="C113" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>295</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I113" s="34" t="s">
         <v>20</v>
@@ -7319,22 +7349,22 @@
       </c>
       <c r="C114" s="9">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>296</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I114" s="34" t="s">
         <v>20</v>
@@ -7354,7 +7384,7 @@
       <c r="N114" s="45"/>
       <c r="O114" s="35"/>
     </row>
-    <row r="115" spans="1:15" ht="36.75">
+    <row r="115" spans="1:15" ht="73.5">
       <c r="A115" s="3">
         <v>4</v>
       </c>
@@ -7363,23 +7393,23 @@
         <v>114</v>
       </c>
       <c r="C115" s="9">
-        <f>$B$104</f>
-        <v>103</v>
+        <f t="shared" si="7"/>
+        <v>104</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="F115" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="H115" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I115" s="34" t="s">
         <v>20</v>
@@ -7408,20 +7438,20 @@
         <v>115</v>
       </c>
       <c r="C116" s="9">
-        <f>$B$104</f>
-        <v>103</v>
+        <f>$B$105</f>
+        <v>104</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H116" s="40" t="s">
         <v>279</v>
@@ -7444,7 +7474,7 @@
       <c r="N116" s="45"/>
       <c r="O116" s="35"/>
     </row>
-    <row r="117" spans="1:15" ht="55.5">
+    <row r="117" spans="1:15" ht="36.75">
       <c r="A117" s="3">
         <v>4</v>
       </c>
@@ -7453,32 +7483,32 @@
         <v>116</v>
       </c>
       <c r="C117" s="9">
-        <f>$B$104</f>
-        <v>103</v>
+        <f>$B$105</f>
+        <v>104</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>298</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J117" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K117" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L117" s="42">
         <v>45117</v>
@@ -7486,14 +7516,10 @@
       <c r="M117" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N117" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="O117" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="N117" s="45"/>
+      <c r="O117" s="35"/>
+    </row>
+    <row r="118" spans="1:15" ht="55.5">
       <c r="A118" s="3">
         <v>4</v>
       </c>
@@ -7502,37 +7528,45 @@
         <v>117</v>
       </c>
       <c r="C118" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$105</f>
+        <v>104</v>
       </c>
       <c r="D118" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H118" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I118" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J118" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K118" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" s="42">
+        <v>45117</v>
+      </c>
+      <c r="M118" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O118" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E118" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H118" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="I118" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L118" s="44"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="45"/>
-      <c r="O118" s="35"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="3">
@@ -7543,24 +7577,24 @@
         <v>118</v>
       </c>
       <c r="C119" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G119" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H119" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="H119" s="40" t="s">
-        <v>305</v>
-      </c>
       <c r="I119" s="34" t="s">
         <v>20</v>
       </c>
@@ -7570,12 +7604,16 @@
       <c r="K119" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L119" s="44"/>
-      <c r="M119" s="43"/>
+      <c r="L119" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M119" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N119" s="45"/>
       <c r="O119" s="35"/>
     </row>
-    <row r="120" spans="1:15" ht="36.75">
+    <row r="120" spans="1:15">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -7584,23 +7622,23 @@
         <v>119</v>
       </c>
       <c r="C120" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F120" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="H120" s="40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I120" s="34" t="s">
         <v>20</v>
@@ -7611,8 +7649,12 @@
       <c r="K120" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L120" s="44"/>
-      <c r="M120" s="43"/>
+      <c r="L120" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M120" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N120" s="45"/>
       <c r="O120" s="35"/>
     </row>
@@ -7625,24 +7667,24 @@
         <v>120</v>
       </c>
       <c r="C121" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H121" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H121" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="I121" s="34" t="s">
         <v>20</v>
       </c>
@@ -7652,8 +7694,12 @@
       <c r="K121" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L121" s="44"/>
-      <c r="M121" s="43"/>
+      <c r="L121" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M121" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N121" s="45"/>
       <c r="O121" s="35"/>
     </row>
@@ -7666,24 +7712,24 @@
         <v>121</v>
       </c>
       <c r="C122" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F122" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H122" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H122" s="40" t="s">
-        <v>315</v>
-      </c>
       <c r="I122" s="34" t="s">
         <v>20</v>
       </c>
@@ -7693,8 +7739,12 @@
       <c r="K122" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L122" s="44"/>
-      <c r="M122" s="43"/>
+      <c r="L122" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M122" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N122" s="45"/>
       <c r="O122" s="35"/>
     </row>
@@ -7707,24 +7757,24 @@
         <v>122</v>
       </c>
       <c r="C123" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F123" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H123" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H123" s="40" t="s">
-        <v>318</v>
-      </c>
       <c r="I123" s="34" t="s">
         <v>20</v>
       </c>
@@ -7734,8 +7784,12 @@
       <c r="K123" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L123" s="44"/>
-      <c r="M123" s="43"/>
+      <c r="L123" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M123" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N123" s="45"/>
       <c r="O123" s="35"/>
     </row>
@@ -7748,24 +7802,24 @@
         <v>123</v>
       </c>
       <c r="C124" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F124" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H124" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H124" s="40" t="s">
-        <v>321</v>
-      </c>
       <c r="I124" s="34" t="s">
         <v>20</v>
       </c>
@@ -7775,8 +7829,12 @@
       <c r="K124" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L124" s="44"/>
-      <c r="M124" s="43"/>
+      <c r="L124" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M124" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N124" s="45"/>
       <c r="O124" s="35"/>
     </row>
@@ -7789,24 +7847,24 @@
         <v>124</v>
       </c>
       <c r="C125" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F125" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H125" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H125" s="40" t="s">
-        <v>324</v>
-      </c>
       <c r="I125" s="34" t="s">
         <v>20</v>
       </c>
@@ -7816,8 +7874,12 @@
       <c r="K125" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L125" s="44"/>
-      <c r="M125" s="43"/>
+      <c r="L125" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M125" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N125" s="45"/>
       <c r="O125" s="35"/>
     </row>
@@ -7830,24 +7892,24 @@
         <v>125</v>
       </c>
       <c r="C126" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F126" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H126" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H126" s="40" t="s">
-        <v>327</v>
-      </c>
       <c r="I126" s="34" t="s">
         <v>20</v>
       </c>
@@ -7857,12 +7919,16 @@
       <c r="K126" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L126" s="44"/>
-      <c r="M126" s="43"/>
+      <c r="L126" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M126" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N126" s="45"/>
       <c r="O126" s="35"/>
     </row>
-    <row r="127" spans="1:15" ht="147">
+    <row r="127" spans="1:15" ht="36.75">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -7871,24 +7937,24 @@
         <v>126</v>
       </c>
       <c r="C127" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F127" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H127" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="H127" s="40" t="s">
-        <v>330</v>
-      </c>
       <c r="I127" s="34" t="s">
         <v>20</v>
       </c>
@@ -7898,12 +7964,16 @@
       <c r="K127" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L127" s="44"/>
-      <c r="M127" s="43"/>
+      <c r="L127" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M127" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N127" s="45"/>
       <c r="O127" s="35"/>
     </row>
-    <row r="128" spans="1:15" ht="55.5">
+    <row r="128" spans="1:15" ht="147">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -7912,23 +7982,23 @@
         <v>127</v>
       </c>
       <c r="C128" s="9">
-        <f>$B$95</f>
-        <v>94</v>
+        <f>$B$96</f>
+        <v>95</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I128" s="34" t="s">
         <v>20</v>
@@ -7939,12 +8009,16 @@
       <c r="K128" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L128" s="44"/>
-      <c r="M128" s="43"/>
+      <c r="L128" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M128" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N128" s="45"/>
       <c r="O128" s="35"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" ht="55.5">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -7952,239 +8026,490 @@
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="9">
+        <f>$B$96</f>
+        <v>95</v>
+      </c>
       <c r="D129" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="44"/>
-      <c r="M129" s="43"/>
+      <c r="F129" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I129" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M129" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N129" s="45"/>
       <c r="O129" s="35"/>
     </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="3"/>
+    <row r="130" spans="1:15" ht="36.75">
+      <c r="A130" s="3">
+        <v>4</v>
+      </c>
       <c r="B130" s="3">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="C130" s="9"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E130" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="44"/>
-      <c r="M130" s="43"/>
-      <c r="N130" s="45"/>
-      <c r="O130" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H130" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I130" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J130" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K130" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L130" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M130" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="O130" s="35" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="36.75">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3">
+        <v>4</v>
+      </c>
       <c r="B131" s="3">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E131" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="35"/>
-      <c r="L131" s="44"/>
-      <c r="M131" s="43"/>
+        <v>16</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H131" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I131" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M131" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N131" s="45"/>
       <c r="O131" s="35"/>
     </row>
     <row r="132" spans="1:15" ht="36.75">
-      <c r="A132" s="3"/>
+      <c r="A132" s="3">
+        <v>4</v>
+      </c>
       <c r="B132" s="3">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="12"/>
+      <c r="D132" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E132" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="44"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="35"/>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H132" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I132" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J132" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K132" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L132" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M132" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="O132" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="36.75">
+      <c r="A133" s="3">
+        <v>4</v>
+      </c>
       <c r="B133" s="3">
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="12"/>
+      <c r="D133" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E133" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="44"/>
-      <c r="M133" s="43"/>
+        <v>262</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H133" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I133" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J133" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K133" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L133" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M133" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N133" s="45"/>
       <c r="O133" s="35"/>
     </row>
     <row r="134" spans="1:15" ht="36.75">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3">
+        <v>4</v>
+      </c>
       <c r="B134" s="3">
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E134" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="44"/>
-      <c r="M134" s="43"/>
+        <v>138</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H134" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I134" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L134" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M134" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N134" s="45"/>
       <c r="O134" s="35"/>
     </row>
     <row r="135" spans="1:15" ht="36.75">
-      <c r="A135" s="3"/>
+      <c r="A135" s="3">
+        <v>4</v>
+      </c>
       <c r="B135" s="3">
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="12"/>
+      <c r="D135" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E135" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="44"/>
-      <c r="M135" s="43"/>
-      <c r="N135" s="45"/>
-      <c r="O135" s="35"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I135" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J135" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L135" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M135" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="O135" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="36.75">
+      <c r="A136" s="3">
+        <v>4</v>
+      </c>
       <c r="B136" s="3">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="12"/>
+      <c r="D136" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E136" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="44"/>
-      <c r="M136" s="43"/>
-      <c r="N136" s="45"/>
-      <c r="O136" s="35"/>
+        <v>193</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H136" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I136" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J136" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K136" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L136" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M136" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O136" s="35" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="137" spans="1:15" ht="36.75">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3">
+        <v>4</v>
+      </c>
       <c r="B137" s="3">
         <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="12"/>
+      <c r="D137" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="E137" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="44"/>
-      <c r="M137" s="43"/>
-      <c r="N137" s="45"/>
-      <c r="O137" s="35"/>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H137" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J137" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K137" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L137" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M137" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O137" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="36.75">
+      <c r="A138" s="3">
+        <v>4</v>
+      </c>
       <c r="B138" s="3">
         <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="44"/>
-      <c r="M138" s="43"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="35"/>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="3"/>
+      <c r="D138" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I138" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J138" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K138" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L138" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M138" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="O138" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="36.75">
+      <c r="A139" s="3">
+        <v>4</v>
+      </c>
       <c r="B139" s="3">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="C139" s="9"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="44"/>
-      <c r="M139" s="43"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="35"/>
+      <c r="D139" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="I139" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J139" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K139" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L139" s="42">
+        <v>45121</v>
+      </c>
+      <c r="M139" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="O139" s="35" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="3"/>
@@ -8389,7 +8714,7 @@
     <row r="150" spans="1:15">
       <c r="A150" s="3"/>
       <c r="B150" s="3">
-        <f t="shared" ref="B150" si="8">ROW()-1</f>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="C150" s="9"/>
@@ -8406,6 +8731,26 @@
       <c r="N150" s="45"/>
       <c r="O150" s="35"/>
     </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3">
+        <f t="shared" ref="B151" si="8">ROW()-1</f>
+        <v>150</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="44"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="35"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
   <phoneticPr fontId="2"/>
@@ -8418,44 +8763,44 @@
     <hyperlink ref="C18" location="'結合テスト'!B4" display="=$B$4" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
     <hyperlink ref="C19" location="'結合テスト'!B6" display="=$B$6" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
     <hyperlink ref="C17" location="'結合テスト'!B2" display="=$B$2" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
-    <hyperlink ref="C39" location="'結合テスト'!B38" display="=$B$38" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
-    <hyperlink ref="C41" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
-    <hyperlink ref="C40" location="'結合テスト'!B39" display="=$B$39" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
-    <hyperlink ref="C38" location="'結合テスト'!B35" display="=$B$35" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
-    <hyperlink ref="C42" location="'結合テスト'!B41" display="=$B$41" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
-    <hyperlink ref="C49" location="'結合テスト'!B48" display="=$B$48" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
-    <hyperlink ref="C64" location="'結合テスト'!B62" display="=$B$62" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
-    <hyperlink ref="C65" location="'結合テスト'!B63" display="=$B$63" xr:uid="{F7225DF4-C33F-4D23-987C-947E897B6967}"/>
-    <hyperlink ref="C66" location="'結合テスト'!B48" display="=$B$48" xr:uid="{259D4757-3B0F-4BCB-BBB2-9774831923B5}"/>
-    <hyperlink ref="C70" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
-    <hyperlink ref="C67" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
-    <hyperlink ref="C43" location="'結合テスト'!B41" display="=$B$41" xr:uid="{F2C30A4B-EFB1-4CB3-B875-507745F63A2E}"/>
-    <hyperlink ref="C44" location="'結合テスト'!B39" display="=$B$39" xr:uid="{7716002E-BA8F-4704-A45B-3CAB2CD1CD85}"/>
-    <hyperlink ref="C45" location="'結合テスト'!B39" display="=$B$39" xr:uid="{162A7A04-5D92-45E1-82C3-F67D915E948A}"/>
-    <hyperlink ref="C46" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C065DD97-6F90-4F91-8867-7D30EBD462BD}"/>
-    <hyperlink ref="C47" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C9A38686-F980-4E16-A3AE-74F54E0A800F}"/>
+    <hyperlink ref="C40" location="'結合テスト'!B38" display="=$B$38" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
+    <hyperlink ref="C42" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
+    <hyperlink ref="C41" location="'結合テスト'!B39" display="=$B$39" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
+    <hyperlink ref="C39" location="'結合テスト'!B35" display="=$B$35" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
+    <hyperlink ref="C43" location="'結合テスト'!B41" display="=$B$41" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
+    <hyperlink ref="C50" location="'結合テスト'!B48" display="=$B$48" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
+    <hyperlink ref="C65" location="'結合テスト'!B62" display="=$B$62" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
+    <hyperlink ref="C66" location="'結合テスト'!B63" display="=$B$63" xr:uid="{F7225DF4-C33F-4D23-987C-947E897B6967}"/>
+    <hyperlink ref="C67" location="'結合テスト'!B48" display="=$B$48" xr:uid="{259D4757-3B0F-4BCB-BBB2-9774831923B5}"/>
+    <hyperlink ref="C71" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
+    <hyperlink ref="C68" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
+    <hyperlink ref="C44" location="'結合テスト'!B41" display="=$B$41" xr:uid="{F2C30A4B-EFB1-4CB3-B875-507745F63A2E}"/>
+    <hyperlink ref="C45" location="'結合テスト'!B39" display="=$B$39" xr:uid="{7716002E-BA8F-4704-A45B-3CAB2CD1CD85}"/>
+    <hyperlink ref="C46" location="'結合テスト'!B39" display="=$B$39" xr:uid="{162A7A04-5D92-45E1-82C3-F67D915E948A}"/>
+    <hyperlink ref="C47" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C065DD97-6F90-4F91-8867-7D30EBD462BD}"/>
+    <hyperlink ref="C48" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C9A38686-F980-4E16-A3AE-74F54E0A800F}"/>
     <hyperlink ref="C12:C15" location="'結合テスト'!B6" display="=$B$6" xr:uid="{EAECBD61-35F8-404D-85B7-0CEFA145589D}"/>
     <hyperlink ref="C4:C8" location="'結合テスト'!B2" display="=$B$2" xr:uid="{11293747-8777-433D-9F9B-D03724B271C0}"/>
     <hyperlink ref="C10:C11" location="'結合テスト'!B5" display="=$B$5" xr:uid="{FE065096-0978-4BDB-9574-B725ED279EEC}"/>
     <hyperlink ref="C20" location="'結合テスト'!B5" display="=$B$5" xr:uid="{5059AE4B-B3DD-42AA-BA6C-54997F510D20}"/>
-    <hyperlink ref="C71" location="'結合テスト'!B68" display="=$B$68" xr:uid="{DDBFEC8C-2867-44A2-9217-3F830B4DE123}"/>
-    <hyperlink ref="C73" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4B45BDA6-B9C8-4D83-AA44-984C50A3A649}"/>
-    <hyperlink ref="C72" location="'結合テスト'!B65" display="=$B$65" xr:uid="{8F337199-F145-401F-B319-DD6FE334291F}"/>
-    <hyperlink ref="C78" location="'結合テスト'!B75" display="=$B$74" xr:uid="{7913AED9-61FF-4A29-A670-5E114281C718}"/>
-    <hyperlink ref="C52" location="'結合テスト'!B48" display="=$B$48" xr:uid="{3E84B9B6-514D-48ED-B44A-D912B9ADB538}"/>
-    <hyperlink ref="C53" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2BE8C696-04CC-4AE1-9F8D-A23896932CBF}"/>
-    <hyperlink ref="C54" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2859717-0D20-4775-ADAE-CEC7A7B64EB6}"/>
-    <hyperlink ref="C55" location="'結合テスト'!B48" display="=$B$48" xr:uid="{69528D96-D424-4A27-A60C-BE1A21252EAB}"/>
-    <hyperlink ref="C56" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2ECDEC6D-D031-4EA6-8A4A-F0CD6872AD85}"/>
-    <hyperlink ref="C57" location="'結合テスト'!B48" display="=$B$48" xr:uid="{27AFDEB2-2282-434E-8E8A-186D8EBB5BED}"/>
-    <hyperlink ref="C58" location="'結合テスト'!B48" display="=$B$48" xr:uid="{55702655-C691-4953-8BFB-312C1263DD7A}"/>
-    <hyperlink ref="C59" location="'結合テスト'!B48" display="=$B$48" xr:uid="{07E93FE6-7C2A-4D3E-956B-7E606ED4333E}"/>
-    <hyperlink ref="C60" location="'結合テスト'!B48" display="=$B$48" xr:uid="{BE087F9B-2361-478F-B964-05E0187B2559}"/>
-    <hyperlink ref="C61" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F479D2D7-08E2-47DD-B792-2EDA702B62DA}"/>
-    <hyperlink ref="C62" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F9DEE477-E3A2-4E23-B9C4-9BE50E81B872}"/>
-    <hyperlink ref="C63" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2B09C88-C966-4F16-AE36-70748A701353}"/>
-    <hyperlink ref="C68" location="'結合テスト'!B48" display="=$B$48" xr:uid="{81B6892C-5BFD-4FF5-AF49-EA9A4758676C}"/>
-    <hyperlink ref="C69" location="'結合テスト'!B48" display="=$B$48" xr:uid="{D551B7F7-2449-460D-AC85-118C6558D3FA}"/>
+    <hyperlink ref="C72" location="'結合テスト'!B68" display="=$B$68" xr:uid="{DDBFEC8C-2867-44A2-9217-3F830B4DE123}"/>
+    <hyperlink ref="C74" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4B45BDA6-B9C8-4D83-AA44-984C50A3A649}"/>
+    <hyperlink ref="C73" location="'結合テスト'!B65" display="=$B$65" xr:uid="{8F337199-F145-401F-B319-DD6FE334291F}"/>
+    <hyperlink ref="C79" location="'結合テスト'!B75" display="=$B$74" xr:uid="{7913AED9-61FF-4A29-A670-5E114281C718}"/>
+    <hyperlink ref="C53" location="'結合テスト'!B48" display="=$B$48" xr:uid="{3E84B9B6-514D-48ED-B44A-D912B9ADB538}"/>
+    <hyperlink ref="C54" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2BE8C696-04CC-4AE1-9F8D-A23896932CBF}"/>
+    <hyperlink ref="C55" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2859717-0D20-4775-ADAE-CEC7A7B64EB6}"/>
+    <hyperlink ref="C56" location="'結合テスト'!B48" display="=$B$48" xr:uid="{69528D96-D424-4A27-A60C-BE1A21252EAB}"/>
+    <hyperlink ref="C57" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2ECDEC6D-D031-4EA6-8A4A-F0CD6872AD85}"/>
+    <hyperlink ref="C58" location="'結合テスト'!B48" display="=$B$48" xr:uid="{27AFDEB2-2282-434E-8E8A-186D8EBB5BED}"/>
+    <hyperlink ref="C59" location="'結合テスト'!B48" display="=$B$48" xr:uid="{55702655-C691-4953-8BFB-312C1263DD7A}"/>
+    <hyperlink ref="C60" location="'結合テスト'!B48" display="=$B$48" xr:uid="{07E93FE6-7C2A-4D3E-956B-7E606ED4333E}"/>
+    <hyperlink ref="C61" location="'結合テスト'!B48" display="=$B$48" xr:uid="{BE087F9B-2361-478F-B964-05E0187B2559}"/>
+    <hyperlink ref="C62" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F479D2D7-08E2-47DD-B792-2EDA702B62DA}"/>
+    <hyperlink ref="C63" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F9DEE477-E3A2-4E23-B9C4-9BE50E81B872}"/>
+    <hyperlink ref="C64" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2B09C88-C966-4F16-AE36-70748A701353}"/>
+    <hyperlink ref="C69" location="'結合テスト'!B48" display="=$B$48" xr:uid="{81B6892C-5BFD-4FF5-AF49-EA9A4758676C}"/>
+    <hyperlink ref="C70" location="'結合テスト'!B48" display="=$B$48" xr:uid="{D551B7F7-2449-460D-AC85-118C6558D3FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8495,63 +8840,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -8559,31 +8904,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -8591,13 +8936,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -8605,13 +8950,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -8619,13 +8964,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -8633,13 +8978,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -8647,13 +8992,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -8661,13 +9006,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -8675,13 +9020,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -8689,13 +9034,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -8703,13 +9048,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -8717,13 +9062,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -8731,13 +9076,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -8745,13 +9090,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -8759,13 +9104,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -8773,7 +9118,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -8781,7 +9126,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -8789,7 +9134,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -8797,7 +9142,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -8805,7 +9150,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -8813,7 +9158,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -8821,7 +9166,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -8829,7 +9174,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -8837,7 +9182,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -8845,7 +9190,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -8853,7 +9198,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -8861,7 +9206,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -8869,7 +9214,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -8877,7 +9222,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -8885,7 +9230,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -8893,7 +9238,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -8901,7 +9246,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -8909,7 +9254,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -8917,7 +9262,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -8925,7 +9270,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -8933,7 +9278,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -8941,7 +9286,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -8949,7 +9294,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -8957,7 +9302,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -8965,7 +9310,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -8973,7 +9318,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -8981,7 +9326,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -8989,7 +9334,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -8997,7 +9342,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -9005,7 +9350,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -9013,7 +9358,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -9021,7 +9366,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>

--- a/test_case/integration-test-case_v4.xlsx
+++ b/test_case/integration-test-case_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A08FC3-BB2D-4E77-B7D2-2E4636774C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4AF0D8-C049-4867-995B-DA5ACACF7627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="445">
   <si>
     <t>ver</t>
   </si>
@@ -458,6 +458,12 @@
     <t>呼び出したデータの操作列右側へ【削除】ボタンが表示される</t>
   </si>
   <si>
+    <t>呼び出したデータが「削除フラグ：無効」の場合、テキストが表示される</t>
+  </si>
+  <si>
+    <t>呼び出したデータの操作列右側へ「削除済み」テキストが表示される</t>
+  </si>
+  <si>
     <t>一覧画面から削除画面へ遷移できる</t>
   </si>
   <si>
@@ -747,7 +753,8 @@
     <t>ヘッダー更新してなかった</t>
   </si>
   <si>
-    <t>ヘッダー更新する</t>
+    <t>ヘッダー更新する
+共通化読み込みした</t>
   </si>
   <si>
     <t>更新確認画面から登録画面へ遷移できる</t>
@@ -791,10 +798,11 @@
     <t>「エラーが発生したためアカウント更新できません。」のテキストが赤字で表示される</t>
   </si>
   <si>
-    <t>コメントアウトしてた</t>
-  </si>
-  <si>
-    <t>コメントアウトを戻す</t>
+    <t>表示されなかった。コメントアウトしてた</t>
+  </si>
+  <si>
+    <t>コメントアウトを戻す
+戻した</t>
   </si>
   <si>
     <t>呼び出したレコードを更新</t>
@@ -904,7 +912,7 @@
 3.ブラウザの更新ボタンをクリックする</t>
   </si>
   <si>
-    <t>エラー画面（fail.php）へ遷移し、「データの呼び出しに失敗しました」のテキストが表示される</t>
+    <t>エラー画面（fail.php）へ遷移し、「データベースの接続に失敗しました」のテキストが表示される</t>
   </si>
   <si>
     <t>削除画面でDBの読み込みに失敗した際、エラー画面へ遷移する</t>
@@ -921,6 +929,9 @@
     <t>1.「削除確認画面（delete_confirm.php）」を直接開く</t>
   </si>
   <si>
+    <t>エラー画面（fail.php）へ遷移し、「データの呼び出しに失敗しました」のテキストが表示される</t>
+  </si>
+  <si>
     <t>更新画面でDBの読み込みに失敗した際、エラー画面へ遷移する</t>
   </si>
   <si>
@@ -998,7 +1009,8 @@
     <t>表示されるがデバッグ用の関数も表示された</t>
   </si>
   <si>
-    <t>デバッグ用の関数を消す</t>
+    <t>デバッグ用の関数を消す
+消した</t>
   </si>
   <si>
     <t>ログイン時、DBの接続時にエラーとなる場合、エラーメッセージを表示する</t>
@@ -1148,6 +1160,9 @@
     <t>ナビゲーションバーに「ログアウト」のメニューが表示される</t>
   </si>
   <si>
+    <t>アクセス制限</t>
+  </si>
+  <si>
     <t>「一般」権限のアカウントでログインすると、管理者権限が必要な画面ではエラー表示がされる</t>
   </si>
   <si>
@@ -1181,7 +1196,8 @@
     <t>「データの呼び出しに失敗しました」が表示される</t>
   </si>
   <si>
-    <t>ログインせず直アクセスした際の条件付与</t>
+    <t>ログインせず直アクセスした際の条件付与
+変えた</t>
   </si>
   <si>
     <t>1.「update_complete.php」へ直接アクセスする
@@ -1212,7 +1228,8 @@
     <t>メニューが更新されない</t>
   </si>
   <si>
-    <t>更新の処理を入れる？</t>
+    <t>更新の処理を入れるかページを挟む
+⇒SESSION配列クリア</t>
   </si>
   <si>
     <t>検索機能</t>
@@ -1322,10 +1339,7 @@
 3.【検索】ボタンをクリックする</t>
   </si>
   <si>
-    <t>エラー画面へ遷移し、「データの呼び出しに失敗しました」のテキストが表示される</t>
-  </si>
-  <si>
-    <t>アクセス制限</t>
+    <t>エラー画面へ遷移し、「データベースの接続に失敗しました」のテキストが表示される</t>
   </si>
   <si>
     <t>ログインせずアクセスするとエラー画面へ遷移する</t>
@@ -1334,6 +1348,10 @@
     <t>アクセスできてしまう</t>
   </si>
   <si>
+    <t>条件文の差し替え
+変えた</t>
+  </si>
+  <si>
     <t>条件文の差し替え</t>
   </si>
   <si>
@@ -1347,6 +1365,46 @@
   </si>
   <si>
     <t>「エラーが発生したためアカウント削除できません。」の表示になる</t>
+  </si>
+  <si>
+    <t>削除済みのアカウントしようとするとエラーを表示する</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「ログイン」をクリックする
+2.メールアドレスの入力フォームへ「test@mail.com」を入力する
+3.パスワードの入力フォームへ「abc123」を入力する
+4.【ログイン】ボタンをクリックする
+5.【ログイン】ボタン下側を目視する</t>
+  </si>
+  <si>
+    <t>「メールアドレスが見つかりませんでした」のテキストが表示される</t>
+  </si>
+  <si>
+    <t>ログイン画面を開くとログアウトされる</t>
+  </si>
+  <si>
+    <t>1.ナビゲーションバーの「ログイン」をクリックする
+2.メールアドレスの入力フォームへ「kanri@mail.com」を入力する
+3.パスワードの入力フォームへ「abc123」を入力する
+4.【ログイン】ボタンをクリックする
+5.「login.php」を開く
+6.「list.php」を開く</t>
+  </si>
+  <si>
+    <t>検索レコードがない場合のテキストが表示される</t>
+  </si>
+  <si>
+    <t>1.一覧のタイトル行の下のテキストを目視する</t>
+  </si>
+  <si>
+    <t>「検索してください」テキストが表示される</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「ない」を入力する
+1.一覧のタイトル行の下のテキストを目視する</t>
+  </si>
+  <si>
+    <t>「条件に一致するアカウントがありませんでした」テキストが表示される</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -1686,7 +1744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1866,6 +1924,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1881,7 +1965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2114,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2363,11 +2459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="G31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+      <pane ySplit="1" topLeftCell="F78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3786,7 +3882,7 @@
       <c r="N32" s="45"/>
       <c r="O32" s="35"/>
     </row>
-    <row r="33" spans="1:15" ht="55.5">
+    <row r="33" spans="1:16" ht="55.5">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -3827,7 +3923,7 @@
       <c r="N33" s="45"/>
       <c r="O33" s="35"/>
     </row>
-    <row r="34" spans="1:15" ht="55.5">
+    <row r="34" spans="1:16" ht="55.5">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -3868,16 +3964,16 @@
       <c r="N34" s="45"/>
       <c r="O34" s="35"/>
     </row>
-    <row r="35" spans="1:15" ht="54">
+    <row r="35" spans="1:16" ht="55.5">
       <c r="A35" s="3">
         <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="12" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>51</v>
@@ -3886,19 +3982,19 @@
         <v>108</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>110</v>
-      </c>
       <c r="I35" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L35" s="42">
         <v>45093</v>
@@ -3906,14 +4002,10 @@
       <c r="M35" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="O35" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="54">
+      <c r="N35" s="45"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:16" ht="54">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3928,37 +4020,40 @@
         <v>51</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L36" s="42">
-        <v>45121</v>
+        <v>45093</v>
       </c>
       <c r="M36" s="43" t="s">
         <v>21</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="36.75">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="36.75">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -3970,10 +4065,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>23</v>
@@ -3999,28 +4094,31 @@
       <c r="N37" s="45"/>
       <c r="O37" s="35"/>
     </row>
-    <row r="38" spans="1:15" ht="36.75">
+    <row r="38" spans="1:16" ht="55.5">
       <c r="A38" s="3">
         <v>3</v>
       </c>
       <c r="B38" s="3">
-        <v>36</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="47">
+        <f>$B$36</f>
+        <v>34</v>
+      </c>
       <c r="D38" s="12" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>20</v>
@@ -4040,31 +4138,31 @@
       <c r="N38" s="45"/>
       <c r="O38" s="35"/>
     </row>
-    <row r="39" spans="1:15" ht="55.5">
+    <row r="39" spans="1:16" ht="36.75">
       <c r="A39" s="3">
         <v>3</v>
       </c>
       <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="47">
+        <f>$B$38</f>
         <v>37</v>
       </c>
-      <c r="C39" s="47">
-        <f>$B$35</f>
-        <v>34</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>20</v>
@@ -4084,31 +4182,31 @@
       <c r="N39" s="45"/>
       <c r="O39" s="35"/>
     </row>
-    <row r="40" spans="1:15" ht="36.75">
+    <row r="40" spans="1:16" ht="36.75">
       <c r="A40" s="3">
         <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="47">
         <f>$B$39</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I40" s="34" t="s">
         <v>20</v>
@@ -4128,31 +4226,31 @@
       <c r="N40" s="45"/>
       <c r="O40" s="35"/>
     </row>
-    <row r="41" spans="1:15" ht="36.75">
+    <row r="41" spans="1:16" ht="36.75">
       <c r="A41" s="3">
         <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="47">
-        <f>$B$40</f>
+        <f>$B$39</f>
         <v>38</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I41" s="34" t="s">
         <v>20</v>
@@ -4172,31 +4270,31 @@
       <c r="N41" s="45"/>
       <c r="O41" s="35"/>
     </row>
-    <row r="42" spans="1:15" ht="36.75">
+    <row r="42" spans="1:16" ht="55.5">
       <c r="A42" s="3">
         <v>3</v>
       </c>
       <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="47">
+        <f>$B$41</f>
         <v>40</v>
       </c>
-      <c r="C42" s="47">
-        <f>$B$40</f>
-        <v>38</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>126</v>
+        <v>82</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>20</v>
@@ -4216,31 +4314,31 @@
       <c r="N42" s="45"/>
       <c r="O42" s="35"/>
     </row>
-    <row r="43" spans="1:15" ht="55.5">
+    <row r="43" spans="1:16" ht="36.75">
       <c r="A43" s="3">
         <v>3</v>
       </c>
       <c r="B43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="47">
-        <f>$B$42</f>
+        <f>$B$41</f>
         <v>40</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>20</v>
@@ -4260,31 +4358,31 @@
       <c r="N43" s="45"/>
       <c r="O43" s="35"/>
     </row>
-    <row r="44" spans="1:15" ht="36.75">
+    <row r="44" spans="1:16" ht="36.75">
       <c r="A44" s="3">
         <v>3</v>
       </c>
       <c r="B44" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="47">
-        <f>$B$42</f>
-        <v>40</v>
+        <f>$B$39</f>
+        <v>38</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>20</v>
@@ -4304,31 +4402,31 @@
       <c r="N44" s="45"/>
       <c r="O44" s="35"/>
     </row>
-    <row r="45" spans="1:15" ht="36.75">
+    <row r="45" spans="1:16" ht="36.75">
       <c r="A45" s="3">
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="47">
-        <f>$B$40</f>
+        <f>$B$39</f>
         <v>38</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>20</v>
@@ -4348,31 +4446,31 @@
       <c r="N45" s="45"/>
       <c r="O45" s="35"/>
     </row>
-    <row r="46" spans="1:15" ht="36.75">
+    <row r="46" spans="1:16" ht="36.75">
       <c r="A46" s="3">
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="47">
-        <f>$B$40</f>
-        <v>38</v>
+        <f>$B$41</f>
+        <v>40</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>20</v>
@@ -4392,31 +4490,31 @@
       <c r="N46" s="45"/>
       <c r="O46" s="35"/>
     </row>
-    <row r="47" spans="1:15" ht="36.75">
+    <row r="47" spans="1:16" ht="36.75">
       <c r="A47" s="3">
         <v>3</v>
       </c>
       <c r="B47" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="47">
-        <f>$B$42</f>
+        <f>$B$41</f>
         <v>40</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>20</v>
@@ -4436,31 +4534,28 @@
       <c r="N47" s="45"/>
       <c r="O47" s="35"/>
     </row>
-    <row r="48" spans="1:15" ht="36.75">
+    <row r="48" spans="1:16" ht="36.75">
       <c r="A48" s="3">
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>46</v>
-      </c>
-      <c r="C48" s="47">
-        <f>$B$42</f>
-        <v>40</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>20</v>
@@ -4480,28 +4575,31 @@
       <c r="N48" s="45"/>
       <c r="O48" s="35"/>
     </row>
-    <row r="49" spans="1:15" ht="36.75">
+    <row r="49" spans="1:15" ht="92.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
       <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="47">
+        <f>$B$48</f>
         <v>47</v>
       </c>
-      <c r="C49" s="9"/>
       <c r="D49" s="12" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>20</v>
@@ -4526,26 +4624,26 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="47">
-        <f>$B$49</f>
+        <f t="shared" ref="C50:C51" si="4">$B$48</f>
         <v>47</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>20</v>
@@ -4570,26 +4668,26 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="47">
-        <f t="shared" ref="C51:C52" si="4">$B$49</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>20</v>
@@ -4614,26 +4712,26 @@
         <v>3</v>
       </c>
       <c r="B52" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="47">
-        <f t="shared" si="4"/>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I52" s="34" t="s">
         <v>20</v>
@@ -4653,31 +4751,31 @@
       <c r="N52" s="45"/>
       <c r="O52" s="35"/>
     </row>
-    <row r="53" spans="1:15" ht="92.25">
+    <row r="53" spans="1:15" ht="73.5">
       <c r="A53" s="3">
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I53" s="34" t="s">
         <v>20</v>
@@ -4702,26 +4800,26 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I54" s="34" t="s">
         <v>20</v>
@@ -4741,31 +4839,31 @@
       <c r="N54" s="45"/>
       <c r="O54" s="35"/>
     </row>
-    <row r="55" spans="1:15" ht="73.5">
+    <row r="55" spans="1:15" ht="92.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I55" s="34" t="s">
         <v>20</v>
@@ -4790,26 +4888,26 @@
         <v>3</v>
       </c>
       <c r="B56" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I56" s="34" t="s">
         <v>20</v>
@@ -4834,26 +4932,26 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I57" s="34" t="s">
         <v>20</v>
@@ -4878,26 +4976,26 @@
         <v>3</v>
       </c>
       <c r="B58" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I58" s="34" t="s">
         <v>20</v>
@@ -4922,26 +5020,26 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I59" s="34" t="s">
         <v>20</v>
@@ -4966,26 +5064,26 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I60" s="34" t="s">
         <v>20</v>
@@ -5010,26 +5108,26 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F61" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="40" t="s">
         <v>172</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>173</v>
       </c>
       <c r="I61" s="34" t="s">
         <v>20</v>
@@ -5049,31 +5147,31 @@
       <c r="N61" s="45"/>
       <c r="O61" s="35"/>
     </row>
-    <row r="62" spans="1:15" ht="92.25">
+    <row r="62" spans="1:15" ht="36.75">
       <c r="A62" s="3">
         <v>3</v>
       </c>
       <c r="B62" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>170</v>
+        <v>121</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="I62" s="34" t="s">
         <v>20</v>
@@ -5093,31 +5191,31 @@
       <c r="N62" s="45"/>
       <c r="O62" s="35"/>
     </row>
-    <row r="63" spans="1:15" ht="36.75">
+    <row r="63" spans="1:15" ht="256.5">
       <c r="A63" s="3">
         <v>3</v>
       </c>
       <c r="B63" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="I63" s="34" t="s">
         <v>20</v>
@@ -5137,31 +5235,31 @@
       <c r="N63" s="45"/>
       <c r="O63" s="35"/>
     </row>
-    <row r="64" spans="1:15" ht="256.5">
+    <row r="64" spans="1:15" ht="73.5">
       <c r="A64" s="3">
         <v>3</v>
       </c>
       <c r="B64" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="47">
-        <f>$B$49</f>
-        <v>47</v>
+        <f>$B$62</f>
+        <v>61</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>19</v>
+        <v>180</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="I64" s="34" t="s">
         <v>20</v>
@@ -5186,26 +5284,26 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="47">
         <f>$B$63</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I65" s="34" t="s">
         <v>20</v>
@@ -5225,31 +5323,31 @@
       <c r="N65" s="45"/>
       <c r="O65" s="35"/>
     </row>
-    <row r="66" spans="1:16" ht="73.5">
+    <row r="66" spans="1:16" ht="36.75">
       <c r="A66" s="3">
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="47">
-        <f>$B$64</f>
-        <v>62</v>
+        <f>$B$48</f>
+        <v>47</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="I66" s="34" t="s">
         <v>20</v>
@@ -5269,31 +5367,31 @@
       <c r="N66" s="45"/>
       <c r="O66" s="35"/>
     </row>
-    <row r="67" spans="1:16" ht="36.75">
+    <row r="67" spans="1:16" ht="55.5">
       <c r="A67" s="3">
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="47">
-        <f>$B$49</f>
-        <v>47</v>
+        <f>$B$65</f>
+        <v>64</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>137</v>
+        <v>185</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="I67" s="34" t="s">
         <v>20</v>
@@ -5313,84 +5411,91 @@
       <c r="N67" s="45"/>
       <c r="O67" s="35"/>
     </row>
-    <row r="68" spans="1:16" ht="55.5">
+    <row r="68" spans="1:16" ht="36.75">
       <c r="A68" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="47">
-        <f>$B$66</f>
-        <v>64</v>
+        <f>$B$48</f>
+        <v>47</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L68" s="42">
-        <v>45093</v>
+        <v>45124</v>
       </c>
       <c r="M68" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="45"/>
-      <c r="O68" s="35"/>
+      <c r="N68" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="O68" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="P68" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:16" ht="36.75">
       <c r="A69" s="3">
         <v>3</v>
       </c>
       <c r="B69" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="47">
-        <f>$B$49</f>
+        <f>$B$48</f>
         <v>47</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J69" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K69" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L69" s="42">
         <v>45093</v>
@@ -5398,38 +5503,34 @@
       <c r="M69" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="O69" s="35" t="s">
-        <v>187</v>
-      </c>
+      <c r="N69" s="45"/>
+      <c r="O69" s="35"/>
     </row>
     <row r="70" spans="1:16" ht="36.75">
       <c r="A70" s="3">
         <v>3</v>
       </c>
       <c r="B70" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="47">
-        <f>$B$49</f>
-        <v>47</v>
+        <f>$B$65</f>
+        <v>64</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I70" s="34" t="s">
         <v>20</v>
@@ -5454,26 +5555,26 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="47">
+        <f>$B$70</f>
         <v>69</v>
       </c>
-      <c r="C71" s="47">
-        <f>$B$66</f>
-        <v>64</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I71" s="34" t="s">
         <v>20</v>
@@ -5498,26 +5599,26 @@
         <v>3</v>
       </c>
       <c r="B72" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="47">
-        <f>$B$71</f>
-        <v>69</v>
+        <f>$B$65</f>
+        <v>64</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="I72" s="34" t="s">
         <v>20</v>
@@ -5537,84 +5638,88 @@
       <c r="N72" s="45"/>
       <c r="O72" s="35"/>
     </row>
-    <row r="73" spans="1:16" ht="36.75">
+    <row r="73" spans="1:16" ht="55.5">
       <c r="A73" s="3">
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="47">
-        <f>$B$66</f>
+        <f>$B$65</f>
         <v>64</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J73" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L73" s="42">
-        <v>45093</v>
+        <v>45124</v>
       </c>
       <c r="M73" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="45"/>
-      <c r="O73" s="35"/>
-    </row>
-    <row r="74" spans="1:16" ht="55.5">
+      <c r="N73" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="O73" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="P73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="73.5">
       <c r="A74" s="3">
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <v>72</v>
-      </c>
-      <c r="C74" s="47">
-        <f>$B$66</f>
-        <v>64</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C74" s="47"/>
       <c r="D74" s="12" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="38" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J74" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L74" s="42">
         <v>45093</v>
@@ -5622,35 +5727,31 @@
       <c r="M74" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="O74" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="73.5">
+      <c r="N74" s="45"/>
+      <c r="O74" s="35"/>
+    </row>
+    <row r="75" spans="1:16" ht="129">
       <c r="A75" s="3">
         <v>3</v>
       </c>
       <c r="B75" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I75" s="34" t="s">
         <v>20</v>
@@ -5670,28 +5771,28 @@
       <c r="N75" s="45"/>
       <c r="O75" s="35"/>
     </row>
-    <row r="76" spans="1:16" ht="129">
+    <row r="76" spans="1:16" ht="293.25">
       <c r="A76" s="3">
         <v>3</v>
       </c>
       <c r="B76" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="12" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I76" s="34" t="s">
         <v>20</v>
@@ -5711,28 +5812,28 @@
       <c r="N76" s="45"/>
       <c r="O76" s="35"/>
     </row>
-    <row r="77" spans="1:16" ht="293.25">
+    <row r="77" spans="1:16" ht="366.75">
       <c r="A77" s="3">
         <v>3</v>
       </c>
       <c r="B77" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I77" s="34" t="s">
         <v>20</v>
@@ -5752,31 +5853,34 @@
       <c r="N77" s="45"/>
       <c r="O77" s="35"/>
     </row>
-    <row r="78" spans="1:16" ht="366.75">
+    <row r="78" spans="1:16" ht="78.75" customHeight="1">
       <c r="A78" s="3">
         <v>3</v>
       </c>
       <c r="B78" s="3">
+        <v>77</v>
+      </c>
+      <c r="C78" s="47">
+        <f>$B$77</f>
         <v>76</v>
       </c>
-      <c r="C78" s="47"/>
       <c r="D78" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J78" s="34" t="s">
         <v>20</v>
@@ -5791,33 +5895,31 @@
         <v>21</v>
       </c>
       <c r="N78" s="45"/>
-      <c r="O78" s="35"/>
-    </row>
-    <row r="79" spans="1:16" ht="78.75" customHeight="1">
+      <c r="O78" s="45"/>
+    </row>
+    <row r="79" spans="1:16" ht="55.5">
       <c r="A79" s="3">
         <v>3</v>
       </c>
       <c r="B79" s="3">
-        <v>77</v>
-      </c>
-      <c r="C79" s="47">
-        <f>$B$78</f>
-        <v>76</v>
-      </c>
+        <f t="shared" ref="B78:B85" si="5">ROW()-1</f>
+        <v>78</v>
+      </c>
+      <c r="C79" s="47"/>
       <c r="D79" s="12" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I79" s="34" t="s">
         <v>20</v>
@@ -5829,40 +5931,37 @@
         <v>20</v>
       </c>
       <c r="L79" s="42">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="M79" s="43" t="s">
         <v>21</v>
       </c>
       <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" t="s">
-        <v>20</v>
-      </c>
+      <c r="O79" s="35"/>
     </row>
     <row r="80" spans="1:16" ht="55.5">
       <c r="A80" s="3">
         <v>3</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" ref="B79:B86" si="5">ROW()-1</f>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I80" s="34" t="s">
         <v>20</v>
@@ -5892,19 +5991,19 @@
       </c>
       <c r="C81" s="47"/>
       <c r="D81" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I81" s="34" t="s">
         <v>20</v>
@@ -5934,19 +6033,19 @@
       </c>
       <c r="C82" s="47"/>
       <c r="D82" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I82" s="34" t="s">
         <v>20</v>
@@ -5976,19 +6075,19 @@
       </c>
       <c r="C83" s="47"/>
       <c r="D83" s="12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I83" s="34" t="s">
         <v>20</v>
@@ -6018,19 +6117,19 @@
       </c>
       <c r="C84" s="47"/>
       <c r="D84" s="12" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I84" s="34" t="s">
         <v>20</v>
@@ -6060,19 +6159,19 @@
       </c>
       <c r="C85" s="47"/>
       <c r="D85" s="12" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I85" s="34" t="s">
         <v>20</v>
@@ -6094,27 +6193,27 @@
     </row>
     <row r="86" spans="1:15" ht="55.5">
       <c r="A86" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B86:B149" si="6">ROW()-1</f>
         <v>85</v>
       </c>
-      <c r="C86" s="47"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="12" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I86" s="34" t="s">
         <v>20</v>
@@ -6126,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="L86" s="42">
-        <v>45100</v>
+        <v>45117</v>
       </c>
       <c r="M86" s="43" t="s">
         <v>21</v>
@@ -6139,24 +6238,24 @@
         <v>4</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" ref="B87:B150" si="6">ROW()-1</f>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I87" s="34" t="s">
         <v>20</v>
@@ -6178,7 +6277,7 @@
     </row>
     <row r="88" spans="1:15" ht="55.5">
       <c r="A88" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="6"/>
@@ -6186,28 +6285,28 @@
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J88" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L88" s="42">
         <v>45117</v>
@@ -6215,10 +6314,14 @@
       <c r="M88" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="45"/>
-      <c r="O88" s="35"/>
-    </row>
-    <row r="89" spans="1:15" ht="55.5">
+      <c r="N88" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="O88" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="73.5">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -6228,28 +6331,28 @@
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J89" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L89" s="42">
         <v>45117</v>
@@ -6257,14 +6360,10 @@
       <c r="M89" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N89" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="O89" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="73.5">
+      <c r="N89" s="45"/>
+      <c r="O89" s="35"/>
+    </row>
+    <row r="90" spans="1:15" ht="92.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -6272,21 +6371,24 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="9">
+        <f>$B$86</f>
+        <v>85</v>
+      </c>
       <c r="D90" s="12" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>252</v>
+        <v>259</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I90" s="34" t="s">
         <v>20</v>
@@ -6315,23 +6417,23 @@
         <v>90</v>
       </c>
       <c r="C91" s="9">
-        <f>$B$87</f>
-        <v>86</v>
+        <f>$B$86</f>
+        <v>85</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I91" s="34" t="s">
         <v>20</v>
@@ -6351,7 +6453,7 @@
       <c r="N91" s="45"/>
       <c r="O91" s="35"/>
     </row>
-    <row r="92" spans="1:15" ht="92.25">
+    <row r="92" spans="1:15" ht="330">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -6359,24 +6461,21 @@
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="C92" s="9">
-        <f>$B$87</f>
-        <v>86</v>
-      </c>
+      <c r="C92" s="9"/>
       <c r="D92" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I92" s="34" t="s">
         <v>20</v>
@@ -6396,7 +6495,7 @@
       <c r="N92" s="45"/>
       <c r="O92" s="35"/>
     </row>
-    <row r="93" spans="1:15" ht="330">
+    <row r="93" spans="1:15" ht="73.5">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -6404,21 +6503,24 @@
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="9">
+        <f>$B$92</f>
+        <v>91</v>
+      </c>
       <c r="D93" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H93" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="I93" s="34" t="s">
         <v>20</v>
@@ -6438,7 +6540,7 @@
       <c r="N93" s="45"/>
       <c r="O93" s="35"/>
     </row>
-    <row r="94" spans="1:15" ht="73.5">
+    <row r="94" spans="1:15" ht="275.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -6451,19 +6553,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I94" s="34" t="s">
         <v>20</v>
@@ -6483,7 +6585,7 @@
       <c r="N94" s="45"/>
       <c r="O94" s="35"/>
     </row>
-    <row r="95" spans="1:15" ht="275.25">
+    <row r="95" spans="1:15" ht="73.5">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -6492,23 +6594,23 @@
         <v>94</v>
       </c>
       <c r="C95" s="9">
-        <f>$B$94</f>
-        <v>93</v>
+        <f>$B$86</f>
+        <v>85</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>266</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I95" s="34" t="s">
         <v>20</v>
@@ -6537,23 +6639,23 @@
         <v>95</v>
       </c>
       <c r="C96" s="9">
-        <f>$B$87</f>
-        <v>86</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I96" s="34" t="s">
         <v>20</v>
@@ -6573,7 +6675,7 @@
       <c r="N96" s="45"/>
       <c r="O96" s="35"/>
     </row>
-    <row r="97" spans="1:15" ht="73.5">
+    <row r="97" spans="1:16" ht="73.5">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -6586,19 +6688,19 @@
         <v>95</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I97" s="34" t="s">
         <v>20</v>
@@ -6618,7 +6720,7 @@
       <c r="N97" s="45"/>
       <c r="O97" s="35"/>
     </row>
-    <row r="98" spans="1:15" ht="73.5">
+    <row r="98" spans="1:16" ht="73.5">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -6631,19 +6733,19 @@
         <v>96</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I98" s="34" t="s">
         <v>20</v>
@@ -6663,7 +6765,7 @@
       <c r="N98" s="45"/>
       <c r="O98" s="35"/>
     </row>
-    <row r="99" spans="1:15" ht="73.5">
+    <row r="99" spans="1:16" ht="73.5">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -6672,23 +6774,23 @@
         <v>98</v>
       </c>
       <c r="C99" s="9">
-        <f>$B$98</f>
-        <v>97</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I99" s="34" t="s">
         <v>20</v>
@@ -6708,7 +6810,7 @@
       <c r="N99" s="45"/>
       <c r="O99" s="35"/>
     </row>
-    <row r="100" spans="1:15" ht="73.5">
+    <row r="100" spans="1:16" ht="73.5">
       <c r="A100" s="3">
         <v>4</v>
       </c>
@@ -6717,23 +6819,23 @@
         <v>99</v>
       </c>
       <c r="C100" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$99</f>
+        <v>98</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H100" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I100" s="34" t="s">
         <v>20</v>
@@ -6753,7 +6855,7 @@
       <c r="N100" s="45"/>
       <c r="O100" s="35"/>
     </row>
-    <row r="101" spans="1:15" ht="73.5">
+    <row r="101" spans="1:16" ht="73.5">
       <c r="A101" s="3">
         <v>4</v>
       </c>
@@ -6766,19 +6868,19 @@
         <v>99</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I101" s="34" t="s">
         <v>20</v>
@@ -6798,7 +6900,7 @@
       <c r="N101" s="45"/>
       <c r="O101" s="35"/>
     </row>
-    <row r="102" spans="1:15" ht="73.5">
+    <row r="102" spans="1:16" ht="36.75">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -6807,23 +6909,23 @@
         <v>101</v>
       </c>
       <c r="C102" s="9">
-        <f>$B$101</f>
-        <v>100</v>
+        <f>$B$86</f>
+        <v>85</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="I102" s="34" t="s">
         <v>20</v>
@@ -6843,7 +6945,7 @@
       <c r="N102" s="45"/>
       <c r="O102" s="35"/>
     </row>
-    <row r="103" spans="1:15" ht="36.75">
+    <row r="103" spans="1:16" ht="36.75">
       <c r="A103" s="3">
         <v>4</v>
       </c>
@@ -6852,23 +6954,23 @@
         <v>102</v>
       </c>
       <c r="C103" s="9">
-        <f>$B$87</f>
-        <v>86</v>
+        <f>$B$86</f>
+        <v>85</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I103" s="34" t="s">
         <v>20</v>
@@ -6888,7 +6990,7 @@
       <c r="N103" s="45"/>
       <c r="O103" s="35"/>
     </row>
-    <row r="104" spans="1:15" ht="36.75">
+    <row r="104" spans="1:16" ht="92.25">
       <c r="A104" s="3">
         <v>4</v>
       </c>
@@ -6896,24 +6998,21 @@
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="C104" s="9">
-        <f>$B$87</f>
-        <v>86</v>
-      </c>
+      <c r="C104" s="9"/>
       <c r="D104" s="12" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I104" s="34" t="s">
         <v>20</v>
@@ -6933,7 +7032,7 @@
       <c r="N104" s="45"/>
       <c r="O104" s="35"/>
     </row>
-    <row r="105" spans="1:15" ht="92.25">
+    <row r="105" spans="1:16" ht="73.5">
       <c r="A105" s="3">
         <v>4</v>
       </c>
@@ -6941,21 +7040,24 @@
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="9">
+        <f>$B$104</f>
+        <v>103</v>
+      </c>
       <c r="D105" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I105" s="34" t="s">
         <v>20</v>
@@ -6975,7 +7077,7 @@
       <c r="N105" s="45"/>
       <c r="O105" s="35"/>
     </row>
-    <row r="106" spans="1:15" ht="73.5">
+    <row r="106" spans="1:16" ht="73.5">
       <c r="A106" s="3">
         <v>4</v>
       </c>
@@ -6984,23 +7086,23 @@
         <v>105</v>
       </c>
       <c r="C106" s="9">
-        <f>$B$105</f>
-        <v>104</v>
+        <f t="shared" ref="C106:C115" si="7">$B$104</f>
+        <v>103</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I106" s="34" t="s">
         <v>20</v>
@@ -7020,7 +7122,7 @@
       <c r="N106" s="45"/>
       <c r="O106" s="35"/>
     </row>
-    <row r="107" spans="1:15" ht="73.5">
+    <row r="107" spans="1:16" ht="73.5">
       <c r="A107" s="3">
         <v>4</v>
       </c>
@@ -7029,23 +7131,23 @@
         <v>106</v>
       </c>
       <c r="C107" s="9">
-        <f t="shared" ref="C107:C116" si="7">$B$105</f>
-        <v>104</v>
+        <f t="shared" si="7"/>
+        <v>103</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I107" s="34" t="s">
         <v>20</v>
@@ -7065,7 +7167,7 @@
       <c r="N107" s="45"/>
       <c r="O107" s="35"/>
     </row>
-    <row r="108" spans="1:15" ht="73.5">
+    <row r="108" spans="1:16" ht="73.5">
       <c r="A108" s="3">
         <v>4</v>
       </c>
@@ -7075,22 +7177,22 @@
       </c>
       <c r="C108" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I108" s="34" t="s">
         <v>20</v>
@@ -7110,7 +7212,7 @@
       <c r="N108" s="45"/>
       <c r="O108" s="35"/>
     </row>
-    <row r="109" spans="1:15" ht="73.5">
+    <row r="109" spans="1:16" ht="73.5">
       <c r="A109" s="3">
         <v>4</v>
       </c>
@@ -7120,22 +7222,22 @@
       </c>
       <c r="C109" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I109" s="34" t="s">
         <v>20</v>
@@ -7155,9 +7257,9 @@
       <c r="N109" s="45"/>
       <c r="O109" s="35"/>
     </row>
-    <row r="110" spans="1:15" ht="73.5">
+    <row r="110" spans="1:16" ht="73.5">
       <c r="A110" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="6"/>
@@ -7165,42 +7267,49 @@
       </c>
       <c r="C110" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G110" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H110" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="H110" s="40" t="s">
-        <v>286</v>
-      </c>
       <c r="I110" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J110" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K110" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L110" s="42">
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="M110" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N110" s="45"/>
-      <c r="O110" s="35"/>
-    </row>
-    <row r="111" spans="1:15" ht="73.5">
+      <c r="N110" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="O110" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="P110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="73.5">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -7210,31 +7319,31 @@
       </c>
       <c r="C111" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J111" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K111" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L111" s="42">
         <v>45117</v>
@@ -7242,14 +7351,10 @@
       <c r="M111" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N111" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="O111" s="35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="73.5">
+      <c r="N111" s="45"/>
+      <c r="O111" s="35"/>
+    </row>
+    <row r="112" spans="1:16" ht="73.5">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -7259,22 +7364,22 @@
       </c>
       <c r="C112" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I112" s="34" t="s">
         <v>20</v>
@@ -7294,7 +7399,7 @@
       <c r="N112" s="45"/>
       <c r="O112" s="35"/>
     </row>
-    <row r="113" spans="1:15" ht="73.5">
+    <row r="113" spans="1:16" ht="73.5">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -7304,22 +7409,22 @@
       </c>
       <c r="C113" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I113" s="34" t="s">
         <v>20</v>
@@ -7339,7 +7444,7 @@
       <c r="N113" s="45"/>
       <c r="O113" s="35"/>
     </row>
-    <row r="114" spans="1:15" ht="73.5">
+    <row r="114" spans="1:16" ht="73.5">
       <c r="A114" s="3">
         <v>4</v>
       </c>
@@ -7349,22 +7454,22 @@
       </c>
       <c r="C114" s="9">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H114" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I114" s="34" t="s">
         <v>20</v>
@@ -7384,7 +7489,7 @@
       <c r="N114" s="45"/>
       <c r="O114" s="35"/>
     </row>
-    <row r="115" spans="1:15" ht="73.5">
+    <row r="115" spans="1:16" ht="36.75">
       <c r="A115" s="3">
         <v>4</v>
       </c>
@@ -7393,23 +7498,23 @@
         <v>114</v>
       </c>
       <c r="C115" s="9">
-        <f t="shared" si="7"/>
-        <v>104</v>
+        <f>$B$104</f>
+        <v>103</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I115" s="34" t="s">
         <v>20</v>
@@ -7429,7 +7534,7 @@
       <c r="N115" s="45"/>
       <c r="O115" s="35"/>
     </row>
-    <row r="116" spans="1:15" ht="36.75">
+    <row r="116" spans="1:16" ht="36.75">
       <c r="A116" s="3">
         <v>4</v>
       </c>
@@ -7438,23 +7543,23 @@
         <v>115</v>
       </c>
       <c r="C116" s="9">
-        <f>$B$105</f>
-        <v>104</v>
+        <f>$B$104</f>
+        <v>103</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I116" s="34" t="s">
         <v>20</v>
@@ -7474,126 +7579,129 @@
       <c r="N116" s="45"/>
       <c r="O116" s="35"/>
     </row>
-    <row r="117" spans="1:15" ht="36.75">
+    <row r="117" spans="1:16" ht="55.5">
       <c r="A117" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="C117" s="9">
-        <f>$B$105</f>
-        <v>104</v>
+        <f>$B$104</f>
+        <v>103</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J117" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K117" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L117" s="42">
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="M117" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N117" s="45"/>
-      <c r="O117" s="35"/>
-    </row>
-    <row r="118" spans="1:15" ht="55.5">
+      <c r="N117" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="O117" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="P117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" s="3">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="C118" s="9">
-        <f>$B$105</f>
-        <v>104</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>278</v>
+        <v>308</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="H118" s="40" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I118" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J118" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L118" s="42">
-        <v>45117</v>
+        <v>45121</v>
       </c>
       <c r="M118" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N118" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="O118" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="N118" s="45"/>
+      <c r="O118" s="35"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="C119" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H119" s="40" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I119" s="34" t="s">
         <v>20</v>
@@ -7613,32 +7721,32 @@
       <c r="N119" s="45"/>
       <c r="O119" s="35"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:16" ht="36.75">
       <c r="A120" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" s="3">
         <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="C120" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I120" s="34" t="s">
         <v>20</v>
@@ -7658,32 +7766,32 @@
       <c r="N120" s="45"/>
       <c r="O120" s="35"/>
     </row>
-    <row r="121" spans="1:15" ht="36.75">
+    <row r="121" spans="1:16" ht="36.75">
       <c r="A121" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C121" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H121" s="40" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I121" s="34" t="s">
         <v>20</v>
@@ -7703,32 +7811,32 @@
       <c r="N121" s="45"/>
       <c r="O121" s="35"/>
     </row>
-    <row r="122" spans="1:15" ht="36.75">
+    <row r="122" spans="1:16" ht="36.75">
       <c r="A122" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="C122" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I122" s="34" t="s">
         <v>20</v>
@@ -7748,32 +7856,32 @@
       <c r="N122" s="45"/>
       <c r="O122" s="35"/>
     </row>
-    <row r="123" spans="1:15" ht="36.75">
+    <row r="123" spans="1:16" ht="36.75">
       <c r="A123" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="C123" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I123" s="34" t="s">
         <v>20</v>
@@ -7793,32 +7901,32 @@
       <c r="N123" s="45"/>
       <c r="O123" s="35"/>
     </row>
-    <row r="124" spans="1:15" ht="36.75">
+    <row r="124" spans="1:16" ht="36.75">
       <c r="A124" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" s="3">
         <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="C124" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="I124" s="34" t="s">
         <v>20</v>
@@ -7838,32 +7946,32 @@
       <c r="N124" s="45"/>
       <c r="O124" s="35"/>
     </row>
-    <row r="125" spans="1:15" ht="36.75">
+    <row r="125" spans="1:16" ht="36.75">
       <c r="A125" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" s="3">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="C125" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I125" s="34" t="s">
         <v>20</v>
@@ -7883,32 +7991,32 @@
       <c r="N125" s="45"/>
       <c r="O125" s="35"/>
     </row>
-    <row r="126" spans="1:15" ht="36.75">
+    <row r="126" spans="1:16" ht="36.75">
       <c r="A126" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="C126" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I126" s="34" t="s">
         <v>20</v>
@@ -7928,32 +8036,32 @@
       <c r="N126" s="45"/>
       <c r="O126" s="35"/>
     </row>
-    <row r="127" spans="1:15" ht="36.75">
+    <row r="127" spans="1:16" ht="147">
       <c r="A127" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="C127" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I127" s="34" t="s">
         <v>20</v>
@@ -7973,32 +8081,32 @@
       <c r="N127" s="45"/>
       <c r="O127" s="35"/>
     </row>
-    <row r="128" spans="1:15" ht="147">
+    <row r="128" spans="1:16" ht="55.5">
       <c r="A128" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="C128" s="9">
-        <f>$B$96</f>
-        <v>95</v>
+        <f>$B$95</f>
+        <v>94</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I128" s="34" t="s">
         <v>20</v>
@@ -8018,7 +8126,7 @@
       <c r="N128" s="45"/>
       <c r="O128" s="35"/>
     </row>
-    <row r="129" spans="1:15" ht="55.5">
+    <row r="129" spans="1:16" ht="36.75">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -8026,44 +8134,48 @@
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="C129" s="9">
-        <f>$B$96</f>
-        <v>95</v>
-      </c>
+      <c r="C129" s="9"/>
       <c r="D129" s="12" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="I129" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J129" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K129" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L129" s="42">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="M129" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N129" s="45"/>
-      <c r="O129" s="35"/>
-    </row>
-    <row r="130" spans="1:15" ht="36.75">
+      <c r="N129" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O129" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="P129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="36.75">
       <c r="A130" s="3">
         <v>4</v>
       </c>
@@ -8073,28 +8185,28 @@
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I130" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J130" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K130" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L130" s="42">
         <v>45121</v>
@@ -8102,14 +8214,10 @@
       <c r="M130" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N130" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="O130" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="36.75">
+      <c r="N130" s="45"/>
+      <c r="O130" s="35"/>
+    </row>
+    <row r="131" spans="1:16" ht="36.75">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -8119,28 +8227,28 @@
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J131" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K131" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L131" s="42">
         <v>45121</v>
@@ -8148,10 +8256,17 @@
       <c r="M131" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N131" s="45"/>
-      <c r="O131" s="35"/>
-    </row>
-    <row r="132" spans="1:15" ht="36.75">
+      <c r="N131" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O131" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="P131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="36.75">
       <c r="A132" s="3">
         <v>4</v>
       </c>
@@ -8161,19 +8276,19 @@
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I132" s="34" t="s">
         <v>68</v>
@@ -8191,13 +8306,16 @@
         <v>21</v>
       </c>
       <c r="N132" s="45" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O132" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="36.75">
+        <v>343</v>
+      </c>
+      <c r="P132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="36.75">
       <c r="A133" s="3">
         <v>4</v>
       </c>
@@ -8207,28 +8325,28 @@
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I133" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J133" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K133" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L133" s="42">
         <v>45121</v>
@@ -8239,7 +8357,7 @@
       <c r="N133" s="45"/>
       <c r="O133" s="35"/>
     </row>
-    <row r="134" spans="1:15" ht="36.75">
+    <row r="134" spans="1:16" ht="36.75">
       <c r="A134" s="3">
         <v>4</v>
       </c>
@@ -8249,28 +8367,28 @@
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G134" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H134" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="H134" s="40" t="s">
-        <v>286</v>
-      </c>
       <c r="I134" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J134" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="K134" s="34" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L134" s="42">
         <v>45121</v>
@@ -8278,10 +8396,17 @@
       <c r="M134" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N134" s="45"/>
-      <c r="O134" s="35"/>
-    </row>
-    <row r="135" spans="1:15" ht="36.75">
+      <c r="N134" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O134" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="P134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="36.75">
       <c r="A135" s="3">
         <v>4</v>
       </c>
@@ -8291,19 +8416,19 @@
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I135" s="34" t="s">
         <v>68</v>
@@ -8321,13 +8446,16 @@
         <v>21</v>
       </c>
       <c r="N135" s="45" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O135" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="36.75">
+        <v>343</v>
+      </c>
+      <c r="P135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="36.75">
       <c r="A136" s="3">
         <v>4</v>
       </c>
@@ -8337,19 +8465,19 @@
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I136" s="34" t="s">
         <v>68</v>
@@ -8367,13 +8495,16 @@
         <v>21</v>
       </c>
       <c r="N136" s="45" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O136" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="36.75">
+        <v>343</v>
+      </c>
+      <c r="P136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="36.75">
       <c r="A137" s="3">
         <v>4</v>
       </c>
@@ -8383,19 +8514,19 @@
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H137" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I137" s="34" t="s">
         <v>68</v>
@@ -8413,13 +8544,16 @@
         <v>21</v>
       </c>
       <c r="N137" s="45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O137" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="36.75">
+        <v>343</v>
+      </c>
+      <c r="P137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="36.75">
       <c r="A138" s="3">
         <v>4</v>
       </c>
@@ -8429,19 +8563,19 @@
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="12" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I138" s="34" t="s">
         <v>68</v>
@@ -8459,13 +8593,16 @@
         <v>21</v>
       </c>
       <c r="N138" s="45" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="O138" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="36.75">
+        <v>343</v>
+      </c>
+      <c r="P138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="92.25">
       <c r="A139" s="3">
         <v>4</v>
       </c>
@@ -8475,103 +8612,171 @@
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="12" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="I139" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J139" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="K139" s="34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L139" s="42">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="M139" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N139" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="O139" s="35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="3"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="35"/>
+    </row>
+    <row r="140" spans="1:16" ht="110.25">
+      <c r="A140" s="3">
+        <v>4</v>
+      </c>
       <c r="B140" s="3">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="44"/>
-      <c r="M140" s="43"/>
+      <c r="D140" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H140" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I140" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="42">
+        <v>45124</v>
+      </c>
+      <c r="M140" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N140" s="45"/>
       <c r="O140" s="35"/>
     </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="3"/>
+    <row r="141" spans="1:16" ht="36.75">
+      <c r="A141" s="3">
+        <v>5</v>
+      </c>
       <c r="B141" s="3">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="44"/>
-      <c r="M141" s="43"/>
+      <c r="C141" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F141" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G141" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="H141" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="I141" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="42">
+        <v>45124</v>
+      </c>
+      <c r="M141" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N141" s="45"/>
       <c r="O141" s="35"/>
     </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="3"/>
+    <row r="142" spans="1:16" ht="36.75">
+      <c r="A142" s="3">
+        <v>5</v>
+      </c>
       <c r="B142" s="3">
         <f t="shared" si="6"/>
         <v>141</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="44"/>
-      <c r="M142" s="43"/>
+      <c r="C142" s="9">
+        <f>$B$95</f>
+        <v>94</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F142" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G142" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="H142" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="I142" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" s="42">
+        <v>45124</v>
+      </c>
+      <c r="M142" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="N142" s="45"/>
       <c r="O142" s="35"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:16">
       <c r="A143" s="3"/>
       <c r="B143" s="3">
         <f t="shared" si="6"/>
@@ -8591,7 +8796,7 @@
       <c r="N143" s="45"/>
       <c r="O143" s="35"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:16">
       <c r="A144" s="3"/>
       <c r="B144" s="3">
         <f t="shared" si="6"/>
@@ -8714,7 +8919,7 @@
     <row r="150" spans="1:15">
       <c r="A150" s="3"/>
       <c r="B150" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B150" si="8">ROW()-1</f>
         <v>149</v>
       </c>
       <c r="C150" s="9"/>
@@ -8731,26 +8936,6 @@
       <c r="N150" s="45"/>
       <c r="O150" s="35"/>
     </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3">
-        <f t="shared" ref="B151" si="8">ROW()-1</f>
-        <v>150</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="44"/>
-      <c r="M151" s="43"/>
-      <c r="N151" s="45"/>
-      <c r="O151" s="35"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}"/>
   <phoneticPr fontId="2"/>
@@ -8763,44 +8948,44 @@
     <hyperlink ref="C18" location="'結合テスト'!B4" display="=$B$4" xr:uid="{0E4BCF80-D19F-4F8C-9081-BE72D04394FC}"/>
     <hyperlink ref="C19" location="'結合テスト'!B6" display="=$B$6" xr:uid="{4AAE80F4-F4BB-49D5-A159-F49D51D3F377}"/>
     <hyperlink ref="C17" location="'結合テスト'!B2" display="=$B$2" xr:uid="{1A1CCF35-BEE1-4490-B7E2-E124CFF649BC}"/>
-    <hyperlink ref="C40" location="'結合テスト'!B38" display="=$B$38" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
-    <hyperlink ref="C42" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
-    <hyperlink ref="C41" location="'結合テスト'!B39" display="=$B$39" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
-    <hyperlink ref="C39" location="'結合テスト'!B35" display="=$B$35" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
-    <hyperlink ref="C43" location="'結合テスト'!B41" display="=$B$41" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
-    <hyperlink ref="C50" location="'結合テスト'!B48" display="=$B$48" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
-    <hyperlink ref="C65" location="'結合テスト'!B62" display="=$B$62" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
-    <hyperlink ref="C66" location="'結合テスト'!B63" display="=$B$63" xr:uid="{F7225DF4-C33F-4D23-987C-947E897B6967}"/>
-    <hyperlink ref="C67" location="'結合テスト'!B48" display="=$B$48" xr:uid="{259D4757-3B0F-4BCB-BBB2-9774831923B5}"/>
-    <hyperlink ref="C71" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
-    <hyperlink ref="C68" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
-    <hyperlink ref="C44" location="'結合テスト'!B41" display="=$B$41" xr:uid="{F2C30A4B-EFB1-4CB3-B875-507745F63A2E}"/>
-    <hyperlink ref="C45" location="'結合テスト'!B39" display="=$B$39" xr:uid="{7716002E-BA8F-4704-A45B-3CAB2CD1CD85}"/>
-    <hyperlink ref="C46" location="'結合テスト'!B39" display="=$B$39" xr:uid="{162A7A04-5D92-45E1-82C3-F67D915E948A}"/>
-    <hyperlink ref="C47" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C065DD97-6F90-4F91-8867-7D30EBD462BD}"/>
-    <hyperlink ref="C48" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C9A38686-F980-4E16-A3AE-74F54E0A800F}"/>
+    <hyperlink ref="C39" location="'結合テスト'!B38" display="=$B$38" xr:uid="{91681121-6F15-4E8B-A10F-8F501DE66A7F}"/>
+    <hyperlink ref="C41" location="'結合テスト'!B24" display="=$B$24" xr:uid="{52658E7C-11F8-4240-9F4F-3A9DBFC5955E}"/>
+    <hyperlink ref="C40" location="'結合テスト'!B39" display="=$B$39" xr:uid="{2CBA4ADB-1F38-47C5-B718-301060087172}"/>
+    <hyperlink ref="C38" location="'結合テスト'!B35" display="=$B$35" xr:uid="{4E32A9E2-54ED-432C-94E9-90627D8544C9}"/>
+    <hyperlink ref="C42" location="'結合テスト'!B41" display="=$B$41" xr:uid="{2871E19D-ABCA-483D-B80E-3C370607E1C1}"/>
+    <hyperlink ref="C49" location="'結合テスト'!B48" display="=$B$48" xr:uid="{B3AF097A-FF21-4C30-B45C-7A15F598C783}"/>
+    <hyperlink ref="C64" location="'結合テスト'!B62" display="=$B$62" xr:uid="{B90B304A-51AB-423C-9EF8-53B5A31AB3B9}"/>
+    <hyperlink ref="C65" location="'結合テスト'!B63" display="=$B$63" xr:uid="{F7225DF4-C33F-4D23-987C-947E897B6967}"/>
+    <hyperlink ref="C66" location="'結合テスト'!B48" display="=$B$48" xr:uid="{259D4757-3B0F-4BCB-BBB2-9774831923B5}"/>
+    <hyperlink ref="C70" location="'結合テスト'!B65" display="=$B$65" xr:uid="{BE2DDB10-18D8-4BEE-8CB5-12B1779E7C6A}"/>
+    <hyperlink ref="C67" location="'結合テスト'!B65" display="=$B$65" xr:uid="{002934D3-244C-48AC-996D-96EBAF49289B}"/>
+    <hyperlink ref="C43" location="'結合テスト'!B41" display="=$B$41" xr:uid="{F2C30A4B-EFB1-4CB3-B875-507745F63A2E}"/>
+    <hyperlink ref="C44" location="'結合テスト'!B39" display="=$B$39" xr:uid="{7716002E-BA8F-4704-A45B-3CAB2CD1CD85}"/>
+    <hyperlink ref="C45" location="'結合テスト'!B39" display="=$B$39" xr:uid="{162A7A04-5D92-45E1-82C3-F67D915E948A}"/>
+    <hyperlink ref="C46" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C065DD97-6F90-4F91-8867-7D30EBD462BD}"/>
+    <hyperlink ref="C47" location="'結合テスト'!B41" display="=$B$41" xr:uid="{C9A38686-F980-4E16-A3AE-74F54E0A800F}"/>
     <hyperlink ref="C12:C15" location="'結合テスト'!B6" display="=$B$6" xr:uid="{EAECBD61-35F8-404D-85B7-0CEFA145589D}"/>
     <hyperlink ref="C4:C8" location="'結合テスト'!B2" display="=$B$2" xr:uid="{11293747-8777-433D-9F9B-D03724B271C0}"/>
     <hyperlink ref="C10:C11" location="'結合テスト'!B5" display="=$B$5" xr:uid="{FE065096-0978-4BDB-9574-B725ED279EEC}"/>
     <hyperlink ref="C20" location="'結合テスト'!B5" display="=$B$5" xr:uid="{5059AE4B-B3DD-42AA-BA6C-54997F510D20}"/>
-    <hyperlink ref="C72" location="'結合テスト'!B68" display="=$B$68" xr:uid="{DDBFEC8C-2867-44A2-9217-3F830B4DE123}"/>
-    <hyperlink ref="C74" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4B45BDA6-B9C8-4D83-AA44-984C50A3A649}"/>
-    <hyperlink ref="C73" location="'結合テスト'!B65" display="=$B$65" xr:uid="{8F337199-F145-401F-B319-DD6FE334291F}"/>
-    <hyperlink ref="C79" location="'結合テスト'!B75" display="=$B$74" xr:uid="{7913AED9-61FF-4A29-A670-5E114281C718}"/>
-    <hyperlink ref="C53" location="'結合テスト'!B48" display="=$B$48" xr:uid="{3E84B9B6-514D-48ED-B44A-D912B9ADB538}"/>
-    <hyperlink ref="C54" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2BE8C696-04CC-4AE1-9F8D-A23896932CBF}"/>
-    <hyperlink ref="C55" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2859717-0D20-4775-ADAE-CEC7A7B64EB6}"/>
-    <hyperlink ref="C56" location="'結合テスト'!B48" display="=$B$48" xr:uid="{69528D96-D424-4A27-A60C-BE1A21252EAB}"/>
-    <hyperlink ref="C57" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2ECDEC6D-D031-4EA6-8A4A-F0CD6872AD85}"/>
-    <hyperlink ref="C58" location="'結合テスト'!B48" display="=$B$48" xr:uid="{27AFDEB2-2282-434E-8E8A-186D8EBB5BED}"/>
-    <hyperlink ref="C59" location="'結合テスト'!B48" display="=$B$48" xr:uid="{55702655-C691-4953-8BFB-312C1263DD7A}"/>
-    <hyperlink ref="C60" location="'結合テスト'!B48" display="=$B$48" xr:uid="{07E93FE6-7C2A-4D3E-956B-7E606ED4333E}"/>
-    <hyperlink ref="C61" location="'結合テスト'!B48" display="=$B$48" xr:uid="{BE087F9B-2361-478F-B964-05E0187B2559}"/>
-    <hyperlink ref="C62" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F479D2D7-08E2-47DD-B792-2EDA702B62DA}"/>
-    <hyperlink ref="C63" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F9DEE477-E3A2-4E23-B9C4-9BE50E81B872}"/>
-    <hyperlink ref="C64" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2B09C88-C966-4F16-AE36-70748A701353}"/>
-    <hyperlink ref="C69" location="'結合テスト'!B48" display="=$B$48" xr:uid="{81B6892C-5BFD-4FF5-AF49-EA9A4758676C}"/>
-    <hyperlink ref="C70" location="'結合テスト'!B48" display="=$B$48" xr:uid="{D551B7F7-2449-460D-AC85-118C6558D3FA}"/>
+    <hyperlink ref="C71" location="'結合テスト'!B68" display="=$B$68" xr:uid="{DDBFEC8C-2867-44A2-9217-3F830B4DE123}"/>
+    <hyperlink ref="C73" location="'結合テスト'!B65" display="=$B$65" xr:uid="{4B45BDA6-B9C8-4D83-AA44-984C50A3A649}"/>
+    <hyperlink ref="C72" location="'結合テスト'!B65" display="=$B$65" xr:uid="{8F337199-F145-401F-B319-DD6FE334291F}"/>
+    <hyperlink ref="C78" location="'結合テスト'!B75" display="=$B$74" xr:uid="{7913AED9-61FF-4A29-A670-5E114281C718}"/>
+    <hyperlink ref="C52" location="'結合テスト'!B48" display="=$B$48" xr:uid="{3E84B9B6-514D-48ED-B44A-D912B9ADB538}"/>
+    <hyperlink ref="C53" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2BE8C696-04CC-4AE1-9F8D-A23896932CBF}"/>
+    <hyperlink ref="C54" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2859717-0D20-4775-ADAE-CEC7A7B64EB6}"/>
+    <hyperlink ref="C55" location="'結合テスト'!B48" display="=$B$48" xr:uid="{69528D96-D424-4A27-A60C-BE1A21252EAB}"/>
+    <hyperlink ref="C56" location="'結合テスト'!B48" display="=$B$48" xr:uid="{2ECDEC6D-D031-4EA6-8A4A-F0CD6872AD85}"/>
+    <hyperlink ref="C57" location="'結合テスト'!B48" display="=$B$48" xr:uid="{27AFDEB2-2282-434E-8E8A-186D8EBB5BED}"/>
+    <hyperlink ref="C58" location="'結合テスト'!B48" display="=$B$48" xr:uid="{55702655-C691-4953-8BFB-312C1263DD7A}"/>
+    <hyperlink ref="C59" location="'結合テスト'!B48" display="=$B$48" xr:uid="{07E93FE6-7C2A-4D3E-956B-7E606ED4333E}"/>
+    <hyperlink ref="C60" location="'結合テスト'!B48" display="=$B$48" xr:uid="{BE087F9B-2361-478F-B964-05E0187B2559}"/>
+    <hyperlink ref="C61" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F479D2D7-08E2-47DD-B792-2EDA702B62DA}"/>
+    <hyperlink ref="C62" location="'結合テスト'!B48" display="=$B$48" xr:uid="{F9DEE477-E3A2-4E23-B9C4-9BE50E81B872}"/>
+    <hyperlink ref="C63" location="'結合テスト'!B48" display="=$B$48" xr:uid="{C2B09C88-C966-4F16-AE36-70748A701353}"/>
+    <hyperlink ref="C68" location="'結合テスト'!B48" display="=$B$48" xr:uid="{81B6892C-5BFD-4FF5-AF49-EA9A4758676C}"/>
+    <hyperlink ref="C69" location="'結合テスト'!B48" display="=$B$48" xr:uid="{D551B7F7-2449-460D-AC85-118C6558D3FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8840,63 +9025,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="19" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N2" s="24">
         <v>0</v>
@@ -8904,31 +9089,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="15" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E3" s="26">
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="K3" s="26">
         <v>1</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="N3" s="26">
         <v>1</v>
@@ -8936,13 +9121,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="15" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -8950,13 +9135,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="15" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -8964,13 +9149,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -8978,13 +9163,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -8992,13 +9177,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -9006,13 +9191,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -9020,13 +9205,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -9034,13 +9219,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -9048,13 +9233,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -9062,13 +9247,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -9076,13 +9261,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -9090,13 +9275,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -9104,13 +9289,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="17" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -9118,7 +9303,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="30" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -9126,7 +9311,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="30" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -9134,7 +9319,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="30" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -9142,7 +9327,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="30" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -9150,7 +9335,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="30" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -9158,7 +9343,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="30" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -9166,7 +9351,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="30" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -9174,7 +9359,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="30" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -9182,7 +9367,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="30" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -9190,7 +9375,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="30" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -9198,7 +9383,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="30" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -9206,7 +9391,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="30" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -9214,7 +9399,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="30" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -9222,7 +9407,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="30" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -9230,7 +9415,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="30" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -9238,7 +9423,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="30" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -9246,7 +9431,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="30" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -9254,7 +9439,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="30" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -9262,7 +9447,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="30" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H35" s="25">
         <v>33</v>
@@ -9270,7 +9455,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="30" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -9278,7 +9463,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="30" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -9286,7 +9471,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="30" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -9294,7 +9479,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="30" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -9302,7 +9487,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="30" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="H40" s="25">
         <v>38</v>
@@ -9310,7 +9495,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="30" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="H41" s="25">
         <v>39</v>
@@ -9318,7 +9503,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="30" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H42" s="25">
         <v>40</v>
@@ -9326,7 +9511,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="30" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="H43" s="25">
         <v>41</v>
@@ -9334,7 +9519,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="30" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H44" s="25">
         <v>42</v>
@@ -9342,7 +9527,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="30" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="H45" s="25">
         <v>43</v>
@@ -9350,7 +9535,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="30" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="H46" s="25">
         <v>44</v>
@@ -9358,7 +9543,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="30" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="H47" s="25">
         <v>45</v>
@@ -9366,7 +9551,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="31" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="H48" s="26">
         <v>46</v>
